--- a/app/config/tables/triagem/forms/diagnosticQuick/diagnosticQuick.xlsx
+++ b/app/config/tables/triagem/forms/diagnosticQuick/diagnosticQuick.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0687C4A-A3E7-4896-8D83-DD36852CB905}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D802FC-807F-4DBF-A4A0-B3EF718B2175}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="526">
   <si>
     <t>setting_name</t>
   </si>
@@ -1147,12 +1147,6 @@
     <t>diag 10</t>
   </si>
   <si>
-    <t>Diagnosis 1</t>
-  </si>
-  <si>
-    <t>Diagnosis 2</t>
-  </si>
-  <si>
     <t>prodiag1</t>
   </si>
   <si>
@@ -1261,24 +1255,9 @@
     <t>defdiag2n</t>
   </si>
   <si>
-    <t>roundsdate</t>
-  </si>
-  <si>
-    <t>camq</t>
-  </si>
-  <si>
     <t>roundq</t>
   </si>
   <si>
-    <t>secq</t>
-  </si>
-  <si>
-    <t>Child has moved section</t>
-  </si>
-  <si>
-    <t>Child has moved bed</t>
-  </si>
-  <si>
     <t>NA - Don't know</t>
   </si>
   <si>
@@ -1514,6 +1493,123 @@
   </si>
   <si>
     <t>NA - Não sabe</t>
+  </si>
+  <si>
+    <t>cam1</t>
+  </si>
+  <si>
+    <t>sec1</t>
+  </si>
+  <si>
+    <t>cam1na</t>
+  </si>
+  <si>
+    <t>roundsdateinit</t>
+  </si>
+  <si>
+    <t>roundsdatelate</t>
+  </si>
+  <si>
+    <t>initroundcom</t>
+  </si>
+  <si>
+    <t>dbf</t>
+  </si>
+  <si>
+    <t>campdata</t>
+  </si>
+  <si>
+    <t>dataciccri</t>
+  </si>
+  <si>
+    <t>datacicmae</t>
+  </si>
+  <si>
+    <t>geresli</t>
+  </si>
+  <si>
+    <t>malq</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
+    <t>AB-</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>O-</t>
+  </si>
+  <si>
+    <t>mal</t>
+  </si>
+  <si>
+    <t>defdiag3</t>
+  </si>
+  <si>
+    <t>defdiag3n</t>
+  </si>
+  <si>
+    <t>sanguegrpi</t>
+  </si>
+  <si>
+    <t>sanguegrpq</t>
+  </si>
+  <si>
+    <t>prodiag3</t>
+  </si>
+  <si>
+    <t>prodiag3n</t>
+  </si>
+  <si>
+    <t>Pro diagnosis 1</t>
+  </si>
+  <si>
+    <t>Prodiagnostico 1</t>
+  </si>
+  <si>
+    <t>Pro diagnosis 2</t>
+  </si>
+  <si>
+    <t>Prodiagnostico 2</t>
+  </si>
+  <si>
+    <t>Pro diagnosis 3</t>
+  </si>
+  <si>
+    <t>Prodiagnostico 3</t>
+  </si>
+  <si>
+    <t>data('prodiag3n') !=null</t>
+  </si>
+  <si>
+    <t>csobs</t>
+  </si>
+  <si>
+    <t>semanes</t>
+  </si>
+  <si>
+    <t>Age of child (weeks)</t>
+  </si>
+  <si>
+    <t>Idade da criança (semanes)</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>bloodNA</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1654,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,6 +1727,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1654,7 +1768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1680,6 +1794,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -2042,7 +2159,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2051,7 +2168,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2108,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2132,10 +2249,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -2178,11 +2295,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
-  <dimension ref="A1:Q1251"/>
+  <dimension ref="A1:Q1265"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,7 +2361,7 @@
         <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>144</v>
@@ -2272,10 +2389,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -2307,13 +2424,13 @@
         <v>331</v>
       </c>
       <c r="G6" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H6" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="P6" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2327,10 +2444,10 @@
         <v>339</v>
       </c>
       <c r="G7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2354,250 +2471,366 @@
         <v>334</v>
       </c>
       <c r="G10" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H10" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="P10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" t="s">
+        <v>346</v>
+      </c>
+      <c r="G11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H11" t="s">
+        <v>460</v>
+      </c>
+      <c r="P11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>306</v>
+      </c>
+      <c r="G14" t="s">
+        <v>419</v>
+      </c>
+      <c r="H14" t="s">
+        <v>420</v>
+      </c>
+      <c r="P14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G15" t="s">
+        <v>421</v>
+      </c>
+      <c r="H15" t="s">
+        <v>422</v>
+      </c>
+      <c r="I15" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="J15" t="s">
+        <v>424</v>
+      </c>
+      <c r="K15" t="s">
+        <v>425</v>
+      </c>
+      <c r="P15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F16" t="s">
+        <v>521</v>
+      </c>
+      <c r="G16" t="s">
+        <v>522</v>
+      </c>
+      <c r="H16" t="s">
+        <v>523</v>
+      </c>
+      <c r="P16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" t="s">
         <v>426</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H17" t="s">
         <v>427</v>
       </c>
-      <c r="P11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>330</v>
-      </c>
-      <c r="G12" t="s">
-        <v>428</v>
-      </c>
-      <c r="H12" t="s">
-        <v>429</v>
-      </c>
-      <c r="I12" t="s">
-        <v>430</v>
-      </c>
-      <c r="J12" t="s">
-        <v>431</v>
-      </c>
-      <c r="K12" t="s">
-        <v>432</v>
-      </c>
-      <c r="P12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>323</v>
-      </c>
-      <c r="G13" t="s">
-        <v>433</v>
-      </c>
-      <c r="H13" t="s">
-        <v>434</v>
-      </c>
-      <c r="P13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>309</v>
-      </c>
-      <c r="F14" t="s">
-        <v>346</v>
-      </c>
-      <c r="G14" t="s">
-        <v>466</v>
-      </c>
-      <c r="H14" t="s">
-        <v>467</v>
-      </c>
-      <c r="P14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>385</v>
-      </c>
-      <c r="G17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>36</v>
       </c>
       <c r="E20" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>383</v>
+      </c>
+      <c r="G26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
         <v>360</v>
       </c>
-      <c r="F20" t="s">
-        <v>373</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F29" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+      <c r="G29" t="s">
+        <v>513</v>
+      </c>
+      <c r="H29" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>146</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E30" t="s">
+        <v>374</v>
+      </c>
+      <c r="F30" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>376</v>
       </c>
-      <c r="F21" t="s">
+      <c r="C31" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="32" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>378</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F32" t="s">
+        <v>371</v>
+      </c>
+      <c r="L32">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="34" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>360</v>
+      </c>
+      <c r="F34" t="s">
+        <v>372</v>
+      </c>
+      <c r="G34" t="s">
+        <v>515</v>
+      </c>
+      <c r="H34" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" t="s">
+        <v>374</v>
+      </c>
+      <c r="F35" t="s">
         <v>380</v>
       </c>
-      <c r="F23" t="s">
-        <v>373</v>
-      </c>
-      <c r="L23">
+    </row>
+    <row r="36" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>376</v>
+      </c>
+      <c r="C36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>378</v>
+      </c>
+      <c r="F37" t="s">
+        <v>372</v>
+      </c>
+      <c r="L37">
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="38" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>36</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E39" t="s">
         <v>360</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F39" t="s">
+        <v>511</v>
+      </c>
+      <c r="G39" t="s">
+        <v>517</v>
+      </c>
+      <c r="H39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" t="s">
         <v>374</v>
       </c>
-      <c r="G25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F40" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>376</v>
       </c>
-      <c r="F26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C41" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>378</v>
       </c>
-      <c r="C27" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>380</v>
-      </c>
-      <c r="F28" t="s">
-        <v>374</v>
-      </c>
-      <c r="L28">
+      <c r="F42" t="s">
+        <v>511</v>
+      </c>
+      <c r="L42">
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="43" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2607,7 +2840,7 @@
     <row r="55" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2615,63 +2848,23 @@
     <row r="63" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="74" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I156" s="3"/>
-    </row>
-    <row r="157" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I157" s="3"/>
-      <c r="M157" s="1"/>
-    </row>
-    <row r="158" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I158" s="3"/>
-    </row>
-    <row r="159" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I159" s="3"/>
-      <c r="M159" s="1"/>
-    </row>
-    <row r="160" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I160" s="3"/>
-      <c r="M160" s="1"/>
-    </row>
-    <row r="161" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I161" s="3"/>
-      <c r="M161" s="1"/>
-    </row>
-    <row r="162" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I162" s="3"/>
-      <c r="M162" s="1"/>
-    </row>
-    <row r="163" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I163" s="3"/>
-      <c r="M163" s="1"/>
-    </row>
-    <row r="164" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I164" s="3"/>
-      <c r="M164" s="1"/>
-    </row>
-    <row r="165" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I165" s="3"/>
-      <c r="M165" s="1"/>
-    </row>
-    <row r="166" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I166" s="3"/>
-      <c r="M166" s="1"/>
-    </row>
-    <row r="167" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I167" s="3"/>
-      <c r="M167" s="1"/>
-    </row>
-    <row r="168" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I168" s="3"/>
-      <c r="M168" s="1"/>
-    </row>
-    <row r="169" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I169" s="3"/>
-      <c r="M169" s="1"/>
-    </row>
+    <row r="75" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="170" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="M170" s="1"/>
+      <c r="I170" s="3"/>
     </row>
     <row r="171" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I171" s="3"/>
@@ -2679,7 +2872,6 @@
     </row>
     <row r="172" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I172" s="3"/>
-      <c r="M172" s="1"/>
     </row>
     <row r="173" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I173" s="3"/>
@@ -2691,210 +2883,91 @@
     </row>
     <row r="175" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I175" s="3"/>
+      <c r="M175" s="1"/>
     </row>
     <row r="176" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I176" s="3"/>
-    </row>
-    <row r="177" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M176" s="1"/>
+    </row>
+    <row r="177" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I177" s="3"/>
-    </row>
-    <row r="178" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M177" s="1"/>
+    </row>
+    <row r="178" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I178" s="3"/>
-    </row>
-    <row r="179" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M178" s="1"/>
+    </row>
+    <row r="179" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I179" s="3"/>
-    </row>
-    <row r="180" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M179" s="1"/>
+    </row>
+    <row r="180" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I180" s="3"/>
-    </row>
-    <row r="181" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M180" s="1"/>
+    </row>
+    <row r="181" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I181" s="3"/>
-    </row>
-    <row r="183" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M181" s="1"/>
+    </row>
+    <row r="182" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I182" s="3"/>
+      <c r="M182" s="1"/>
+    </row>
+    <row r="183" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I183" s="3"/>
+      <c r="M183" s="1"/>
+    </row>
+    <row r="184" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="M184" s="1"/>
+    </row>
+    <row r="185" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I185" s="3"/>
+      <c r="M185" s="1"/>
+    </row>
+    <row r="186" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I186" s="3"/>
+      <c r="M186" s="1"/>
+    </row>
+    <row r="187" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I187" s="3"/>
       <c r="M187" s="1"/>
     </row>
-    <row r="188" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I188" s="3"/>
       <c r="M188" s="1"/>
     </row>
-    <row r="189" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
-    </row>
-    <row r="190" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="M190" s="1"/>
-    </row>
-    <row r="191" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="L191" s="1"/>
-      <c r="M191" s="1"/>
-      <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
-      <c r="P191" s="1"/>
-    </row>
-    <row r="192" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
+    <row r="189" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I189" s="3"/>
+    </row>
+    <row r="190" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I190" s="3"/>
+    </row>
+    <row r="191" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I191" s="3"/>
+    </row>
+    <row r="192" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I192" s="3"/>
     </row>
     <row r="193" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="1"/>
-      <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
-      <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
-      <c r="P193" s="1"/>
+      <c r="I193" s="3"/>
     </row>
     <row r="194" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
+      <c r="I194" s="3"/>
     </row>
     <row r="195" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="1"/>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
-    </row>
-    <row r="196" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
-      <c r="K196" s="1"/>
-      <c r="L196" s="1"/>
-      <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
-      <c r="P196" s="1"/>
-    </row>
-    <row r="197" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
-    </row>
-    <row r="198" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
-      <c r="L198" s="1"/>
-      <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
-      <c r="P198" s="1"/>
-    </row>
-    <row r="199" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-    </row>
+      <c r="I195" s="3"/>
+    </row>
+    <row r="197" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="200" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-    </row>
-    <row r="201" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
+    </row>
+    <row r="201" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
     </row>
     <row r="202" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="L202" s="1"/>
       <c r="M202" s="1"/>
-      <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
-      <c r="P202" s="1"/>
     </row>
     <row r="203" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F203" s="1"/>
@@ -2910,19 +2983,10 @@
       <c r="P203" s="1"/>
     </row>
     <row r="204" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="1"/>
       <c r="M204" s="1"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
-      <c r="P204" s="1"/>
     </row>
     <row r="205" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -2930,11 +2994,13 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
     </row>
     <row r="206" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -2948,36 +3014,162 @@
       <c r="P206" s="1"/>
     </row>
     <row r="207" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
       <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
     </row>
     <row r="208" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
       <c r="M208" s="1"/>
-    </row>
-    <row r="209" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M209" s="1"/>
-    </row>
-    <row r="210" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M210" s="1"/>
-    </row>
-    <row r="211" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+    </row>
+    <row r="209" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+    </row>
+    <row r="210" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+    </row>
+    <row r="211" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
       <c r="M211" s="1"/>
-    </row>
-    <row r="212" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+    </row>
+    <row r="212" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
       <c r="M212" s="1"/>
-    </row>
-    <row r="213" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+    </row>
+    <row r="213" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
       <c r="M213" s="1"/>
-    </row>
-    <row r="216" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+    </row>
+    <row r="214" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+    </row>
+    <row r="215" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+    </row>
+    <row r="216" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
       <c r="M216" s="1"/>
-    </row>
-    <row r="217" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+    </row>
+    <row r="217" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
       <c r="M217" s="1"/>
-    </row>
-    <row r="218" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+    </row>
+    <row r="218" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
       <c r="M218" s="1"/>
-    </row>
-    <row r="219" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+    </row>
+    <row r="219" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -2985,13 +3177,11 @@
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-    </row>
-    <row r="220" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
@@ -3003,152 +3193,42 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-    </row>
-    <row r="221" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
+    </row>
+    <row r="221" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-    </row>
-    <row r="222" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
-      <c r="K222" s="1"/>
-      <c r="L222" s="1"/>
+    </row>
+    <row r="222" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M222" s="1"/>
-      <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
-      <c r="P222" s="1"/>
-      <c r="Q222" s="1"/>
-    </row>
-    <row r="223" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-      <c r="K223" s="1"/>
-      <c r="L223" s="1"/>
+    </row>
+    <row r="223" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M223" s="1"/>
-      <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
-      <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
-    </row>
-    <row r="224" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="1"/>
-      <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
-      <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
+    </row>
+    <row r="224" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M224" s="1"/>
     </row>
     <row r="225" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
+      <c r="M225" s="1"/>
     </row>
     <row r="226" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
       <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
     </row>
     <row r="227" spans="6:17" x14ac:dyDescent="0.25">
       <c r="M227" s="1"/>
     </row>
-    <row r="228" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M228" s="1"/>
-    </row>
-    <row r="229" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-    </row>
     <row r="230" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="J230" s="1"/>
-      <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
       <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
     </row>
     <row r="231" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="1"/>
       <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
     </row>
     <row r="232" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
-      <c r="L232" s="1"/>
       <c r="M232" s="1"/>
-      <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
-      <c r="P232" s="1"/>
-      <c r="Q232" s="1"/>
     </row>
     <row r="233" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
@@ -3162,12 +3242,15 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
     </row>
     <row r="235" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F235" s="1"/>
@@ -3177,6 +3260,7 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
@@ -3197,7 +3281,18 @@
       <c r="Q236" s="1"/>
     </row>
     <row r="237" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
       <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
     </row>
     <row r="238" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F238" s="1"/>
@@ -3207,7 +3302,6 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
-      <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
@@ -3221,7 +3315,6 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
-      <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
@@ -3242,41 +3335,19 @@
       <c r="Q240" s="1"/>
     </row>
     <row r="241" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
-      <c r="I241" s="1"/>
-      <c r="J241" s="1"/>
-      <c r="K241" s="1"/>
-      <c r="L241" s="1"/>
       <c r="M241" s="1"/>
-      <c r="N241" s="1"/>
-      <c r="O241" s="1"/>
-      <c r="P241" s="1"/>
-      <c r="Q241" s="1"/>
     </row>
     <row r="242" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
-      <c r="K242" s="1"/>
-      <c r="L242" s="1"/>
       <c r="M242" s="1"/>
-      <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
-      <c r="P242" s="1"/>
-      <c r="Q242" s="1"/>
     </row>
     <row r="243" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
@@ -3286,10 +3357,10 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
-      <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
@@ -3299,7 +3370,6 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
-      <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -3311,10 +3381,29 @@
     </row>
     <row r="246" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
       <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="Q246" s="1"/>
     </row>
     <row r="247" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
       <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="Q247" s="1"/>
     </row>
     <row r="248" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F248" s="1"/>
@@ -3323,20 +3412,18 @@
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
-      <c r="M248" s="1"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
-      <c r="Q248" s="1"/>
     </row>
     <row r="249" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
-      <c r="M249" s="1"/>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
@@ -3346,6 +3433,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
@@ -3356,22 +3444,13 @@
       <c r="Q250" s="1"/>
     </row>
     <row r="251" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="1"/>
       <c r="M251" s="1"/>
-      <c r="N251" s="1"/>
-      <c r="O251" s="1"/>
-      <c r="P251" s="1"/>
-      <c r="Q251" s="1"/>
     </row>
     <row r="252" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
@@ -3385,9 +3464,11 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
@@ -3401,6 +3482,7 @@
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
@@ -3418,22 +3500,43 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
+      <c r="Q255" s="1"/>
     </row>
     <row r="256" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
       <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="P256" s="1"/>
+      <c r="Q256" s="1"/>
     </row>
     <row r="257" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+      <c r="P257" s="1"/>
+      <c r="Q257" s="1"/>
     </row>
     <row r="258" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
       <c r="L258" s="1"/>
-      <c r="M258" s="1"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
@@ -3443,6 +3546,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
@@ -3454,29 +3558,10 @@
     </row>
     <row r="260" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
-      <c r="J260" s="1"/>
-      <c r="K260" s="1"/>
-      <c r="L260" s="1"/>
       <c r="M260" s="1"/>
-      <c r="N260" s="1"/>
-      <c r="O260" s="1"/>
-      <c r="P260" s="1"/>
-      <c r="Q260" s="1"/>
     </row>
     <row r="261" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F261" s="1"/>
-      <c r="G261" s="1"/>
-      <c r="H261" s="1"/>
-      <c r="J261" s="1"/>
-      <c r="K261" s="1"/>
-      <c r="L261" s="1"/>
       <c r="M261" s="1"/>
-      <c r="N261" s="1"/>
-      <c r="O261" s="1"/>
-      <c r="P261" s="1"/>
-      <c r="Q261" s="1"/>
     </row>
     <row r="262" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F262" s="1"/>
@@ -3498,6 +3583,7 @@
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
+      <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
@@ -3507,10 +3593,10 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
-      <c r="I264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
@@ -3520,7 +3606,6 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
-      <c r="I265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
@@ -3528,22 +3613,41 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
+      <c r="Q265" s="1"/>
     </row>
     <row r="266" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="J266" s="1"/>
+      <c r="K266" s="1"/>
+      <c r="L266" s="1"/>
       <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1"/>
+      <c r="Q266" s="1"/>
     </row>
     <row r="267" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1"/>
+      <c r="L267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="P267" s="1"/>
+      <c r="Q267" s="1"/>
     </row>
     <row r="268" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
-      <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
@@ -3553,6 +3657,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
@@ -3560,33 +3665,13 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
-      <c r="Q269" s="1"/>
     </row>
     <row r="270" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
-      <c r="J270" s="1"/>
-      <c r="K270" s="1"/>
-      <c r="L270" s="1"/>
       <c r="M270" s="1"/>
-      <c r="N270" s="1"/>
-      <c r="O270" s="1"/>
-      <c r="P270" s="1"/>
-      <c r="Q270" s="1"/>
     </row>
     <row r="271" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F271" s="1"/>
-      <c r="G271" s="1"/>
-      <c r="H271" s="1"/>
-      <c r="J271" s="1"/>
-      <c r="K271" s="1"/>
-      <c r="L271" s="1"/>
       <c r="M271" s="1"/>
-      <c r="N271" s="1"/>
-      <c r="O271" s="1"/>
-      <c r="P271" s="1"/>
-      <c r="Q271" s="1"/>
     </row>
     <row r="272" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F272" s="1"/>
@@ -3608,6 +3693,7 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
+      <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
@@ -3617,30 +3703,48 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
-      <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
+      <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
     </row>
     <row r="275" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1"/>
+      <c r="L275" s="1"/>
       <c r="M275" s="1"/>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+      <c r="P275" s="1"/>
+      <c r="Q275" s="1"/>
     </row>
     <row r="276" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1"/>
+      <c r="L276" s="1"/>
       <c r="M276" s="1"/>
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+      <c r="P276" s="1"/>
+      <c r="Q276" s="1"/>
     </row>
     <row r="277" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
-      <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
-      <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
@@ -3654,7 +3758,6 @@
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
-      <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
@@ -3672,44 +3775,22 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
-      <c r="Q279" s="1"/>
     </row>
     <row r="280" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F280" s="1"/>
-      <c r="G280" s="1"/>
-      <c r="H280" s="1"/>
-      <c r="I280" s="1"/>
-      <c r="J280" s="1"/>
-      <c r="K280" s="1"/>
-      <c r="L280" s="1"/>
       <c r="M280" s="1"/>
-      <c r="N280" s="1"/>
-      <c r="O280" s="1"/>
-      <c r="P280" s="1"/>
-      <c r="Q280" s="1"/>
     </row>
     <row r="281" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
-      <c r="H281" s="1"/>
-      <c r="I281" s="1"/>
-      <c r="J281" s="1"/>
-      <c r="K281" s="1"/>
-      <c r="L281" s="1"/>
       <c r="M281" s="1"/>
-      <c r="N281" s="1"/>
-      <c r="O281" s="1"/>
-      <c r="P281" s="1"/>
-      <c r="Q281" s="1"/>
     </row>
     <row r="282" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
-      <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
+      <c r="M282" s="1"/>
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
@@ -3719,10 +3800,10 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
-      <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
+      <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
@@ -3732,7 +3813,6 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
-      <c r="I284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
@@ -3744,10 +3824,29 @@
     </row>
     <row r="285" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1"/>
+      <c r="L285" s="1"/>
       <c r="M285" s="1"/>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+      <c r="P285" s="1"/>
+      <c r="Q285" s="1"/>
     </row>
     <row r="286" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1"/>
+      <c r="L286" s="1"/>
       <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+      <c r="P286" s="1"/>
+      <c r="Q286" s="1"/>
     </row>
     <row r="287" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F287" s="1"/>
@@ -3756,7 +3855,6 @@
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
-      <c r="M287" s="1"/>
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
@@ -3766,45 +3864,26 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
-      <c r="M288" s="1"/>
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
     </row>
     <row r="289" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F289" s="1"/>
-      <c r="G289" s="1"/>
-      <c r="H289" s="1"/>
-      <c r="J289" s="1"/>
-      <c r="K289" s="1"/>
-      <c r="L289" s="1"/>
       <c r="M289" s="1"/>
-      <c r="N289" s="1"/>
-      <c r="O289" s="1"/>
-      <c r="P289" s="1"/>
-      <c r="Q289" s="1"/>
     </row>
     <row r="290" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
-      <c r="H290" s="1"/>
-      <c r="J290" s="1"/>
-      <c r="K290" s="1"/>
-      <c r="L290" s="1"/>
       <c r="M290" s="1"/>
-      <c r="N290" s="1"/>
-      <c r="O290" s="1"/>
-      <c r="P290" s="1"/>
-      <c r="Q290" s="1"/>
     </row>
     <row r="291" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
@@ -3818,9 +3897,11 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
+      <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
@@ -3834,6 +3915,7 @@
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
+      <c r="M293" s="1"/>
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
@@ -3851,22 +3933,43 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
+      <c r="Q294" s="1"/>
     </row>
     <row r="295" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="1"/>
+      <c r="L295" s="1"/>
       <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+      <c r="P295" s="1"/>
+      <c r="Q295" s="1"/>
     </row>
     <row r="296" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
+      <c r="K296" s="1"/>
+      <c r="L296" s="1"/>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+      <c r="P296" s="1"/>
+      <c r="Q296" s="1"/>
     </row>
     <row r="297" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
-      <c r="M297" s="1"/>
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
@@ -3876,6 +3979,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
@@ -3887,29 +3991,10 @@
     </row>
     <row r="299" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F299" s="1"/>
-      <c r="G299" s="1"/>
-      <c r="H299" s="1"/>
-      <c r="J299" s="1"/>
-      <c r="K299" s="1"/>
-      <c r="L299" s="1"/>
       <c r="M299" s="1"/>
-      <c r="N299" s="1"/>
-      <c r="O299" s="1"/>
-      <c r="P299" s="1"/>
-      <c r="Q299" s="1"/>
     </row>
     <row r="300" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F300" s="1"/>
-      <c r="G300" s="1"/>
-      <c r="H300" s="1"/>
-      <c r="J300" s="1"/>
-      <c r="K300" s="1"/>
-      <c r="L300" s="1"/>
       <c r="M300" s="1"/>
-      <c r="N300" s="1"/>
-      <c r="O300" s="1"/>
-      <c r="P300" s="1"/>
-      <c r="Q300" s="1"/>
     </row>
     <row r="301" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F301" s="1"/>
@@ -3931,6 +4016,7 @@
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
+      <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
@@ -3940,10 +4026,10 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
-      <c r="I303" s="1"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
+      <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
@@ -3953,7 +4039,6 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
-      <c r="I304" s="1"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
@@ -3961,22 +4046,41 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
+      <c r="Q304" s="1"/>
     </row>
     <row r="305" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1"/>
+      <c r="J305" s="1"/>
+      <c r="K305" s="1"/>
+      <c r="L305" s="1"/>
       <c r="M305" s="1"/>
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+      <c r="P305" s="1"/>
+      <c r="Q305" s="1"/>
     </row>
     <row r="306" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="J306" s="1"/>
+      <c r="K306" s="1"/>
+      <c r="L306" s="1"/>
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+      <c r="P306" s="1"/>
+      <c r="Q306" s="1"/>
     </row>
     <row r="307" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
+      <c r="I307" s="1"/>
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
-      <c r="M307" s="1"/>
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
@@ -3986,6 +4090,7 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
+      <c r="I308" s="1"/>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
@@ -3993,33 +4098,13 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
-      <c r="Q308" s="1"/>
     </row>
     <row r="309" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F309" s="1"/>
-      <c r="G309" s="1"/>
-      <c r="H309" s="1"/>
-      <c r="J309" s="1"/>
-      <c r="K309" s="1"/>
-      <c r="L309" s="1"/>
       <c r="M309" s="1"/>
-      <c r="N309" s="1"/>
-      <c r="O309" s="1"/>
-      <c r="P309" s="1"/>
-      <c r="Q309" s="1"/>
     </row>
     <row r="310" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F310" s="1"/>
-      <c r="G310" s="1"/>
-      <c r="H310" s="1"/>
-      <c r="J310" s="1"/>
-      <c r="K310" s="1"/>
-      <c r="L310" s="1"/>
       <c r="M310" s="1"/>
-      <c r="N310" s="1"/>
-      <c r="O310" s="1"/>
-      <c r="P310" s="1"/>
-      <c r="Q310" s="1"/>
     </row>
     <row r="311" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F311" s="1"/>
@@ -4041,6 +4126,7 @@
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
+      <c r="M312" s="1"/>
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
@@ -4050,30 +4136,48 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
-      <c r="I313" s="1"/>
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
+      <c r="M313" s="1"/>
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
     </row>
     <row r="314" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1"/>
+      <c r="J314" s="1"/>
+      <c r="K314" s="1"/>
+      <c r="L314" s="1"/>
       <c r="M314" s="1"/>
+      <c r="N314" s="1"/>
+      <c r="O314" s="1"/>
+      <c r="P314" s="1"/>
+      <c r="Q314" s="1"/>
     </row>
     <row r="315" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="J315" s="1"/>
+      <c r="K315" s="1"/>
+      <c r="L315" s="1"/>
       <c r="M315" s="1"/>
+      <c r="N315" s="1"/>
+      <c r="O315" s="1"/>
+      <c r="P315" s="1"/>
+      <c r="Q315" s="1"/>
     </row>
     <row r="316" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
-      <c r="I316" s="1"/>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
-      <c r="M316" s="1"/>
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
@@ -4087,7 +4191,6 @@
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
-      <c r="M317" s="1"/>
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
@@ -4105,44 +4208,22 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
-      <c r="Q318" s="1"/>
     </row>
     <row r="319" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F319" s="1"/>
-      <c r="G319" s="1"/>
-      <c r="H319" s="1"/>
-      <c r="I319" s="1"/>
-      <c r="J319" s="1"/>
-      <c r="K319" s="1"/>
-      <c r="L319" s="1"/>
       <c r="M319" s="1"/>
-      <c r="N319" s="1"/>
-      <c r="O319" s="1"/>
-      <c r="P319" s="1"/>
-      <c r="Q319" s="1"/>
     </row>
     <row r="320" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F320" s="1"/>
-      <c r="G320" s="1"/>
-      <c r="H320" s="1"/>
-      <c r="I320" s="1"/>
-      <c r="J320" s="1"/>
-      <c r="K320" s="1"/>
-      <c r="L320" s="1"/>
       <c r="M320" s="1"/>
-      <c r="N320" s="1"/>
-      <c r="O320" s="1"/>
-      <c r="P320" s="1"/>
-      <c r="Q320" s="1"/>
     </row>
     <row r="321" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
-      <c r="I321" s="1"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
+      <c r="M321" s="1"/>
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
@@ -4152,10 +4233,10 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
-      <c r="I322" s="1"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
+      <c r="M322" s="1"/>
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
@@ -4165,7 +4246,6 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
-      <c r="I323" s="1"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
@@ -4177,10 +4257,29 @@
     </row>
     <row r="324" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+      <c r="H324" s="1"/>
+      <c r="J324" s="1"/>
+      <c r="K324" s="1"/>
+      <c r="L324" s="1"/>
       <c r="M324" s="1"/>
+      <c r="N324" s="1"/>
+      <c r="O324" s="1"/>
+      <c r="P324" s="1"/>
+      <c r="Q324" s="1"/>
     </row>
     <row r="325" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1"/>
+      <c r="J325" s="1"/>
+      <c r="K325" s="1"/>
+      <c r="L325" s="1"/>
       <c r="M325" s="1"/>
+      <c r="N325" s="1"/>
+      <c r="O325" s="1"/>
+      <c r="P325" s="1"/>
+      <c r="Q325" s="1"/>
     </row>
     <row r="326" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F326" s="1"/>
@@ -4189,7 +4288,6 @@
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
-      <c r="M326" s="1"/>
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
@@ -4199,45 +4297,26 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
+      <c r="I327" s="1"/>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
-      <c r="M327" s="1"/>
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
     </row>
     <row r="328" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
-      <c r="H328" s="1"/>
-      <c r="J328" s="1"/>
-      <c r="K328" s="1"/>
-      <c r="L328" s="1"/>
       <c r="M328" s="1"/>
-      <c r="N328" s="1"/>
-      <c r="O328" s="1"/>
-      <c r="P328" s="1"/>
-      <c r="Q328" s="1"/>
     </row>
     <row r="329" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
-      <c r="H329" s="1"/>
-      <c r="J329" s="1"/>
-      <c r="K329" s="1"/>
-      <c r="L329" s="1"/>
       <c r="M329" s="1"/>
-      <c r="N329" s="1"/>
-      <c r="O329" s="1"/>
-      <c r="P329" s="1"/>
-      <c r="Q329" s="1"/>
     </row>
     <row r="330" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
+      <c r="I330" s="1"/>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
@@ -4251,9 +4330,11 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
+      <c r="I331" s="1"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
+      <c r="M331" s="1"/>
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
@@ -4267,6 +4348,7 @@
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
+      <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
@@ -4284,22 +4366,43 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
+      <c r="Q333" s="1"/>
     </row>
     <row r="334" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+      <c r="H334" s="1"/>
+      <c r="I334" s="1"/>
+      <c r="J334" s="1"/>
+      <c r="K334" s="1"/>
+      <c r="L334" s="1"/>
       <c r="M334" s="1"/>
+      <c r="N334" s="1"/>
+      <c r="O334" s="1"/>
+      <c r="P334" s="1"/>
+      <c r="Q334" s="1"/>
     </row>
     <row r="335" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+      <c r="H335" s="1"/>
+      <c r="I335" s="1"/>
+      <c r="J335" s="1"/>
+      <c r="K335" s="1"/>
+      <c r="L335" s="1"/>
+      <c r="N335" s="1"/>
+      <c r="O335" s="1"/>
+      <c r="P335" s="1"/>
+      <c r="Q335" s="1"/>
     </row>
     <row r="336" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
+      <c r="I336" s="1"/>
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
-      <c r="M336" s="1"/>
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
@@ -4309,6 +4412,7 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
+      <c r="I337" s="1"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
@@ -4320,29 +4424,10 @@
     </row>
     <row r="338" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
-      <c r="H338" s="1"/>
-      <c r="J338" s="1"/>
-      <c r="K338" s="1"/>
-      <c r="L338" s="1"/>
       <c r="M338" s="1"/>
-      <c r="N338" s="1"/>
-      <c r="O338" s="1"/>
-      <c r="P338" s="1"/>
-      <c r="Q338" s="1"/>
     </row>
     <row r="339" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F339" s="1"/>
-      <c r="G339" s="1"/>
-      <c r="H339" s="1"/>
-      <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="1"/>
       <c r="M339" s="1"/>
-      <c r="N339" s="1"/>
-      <c r="O339" s="1"/>
-      <c r="P339" s="1"/>
-      <c r="Q339" s="1"/>
     </row>
     <row r="340" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F340" s="1"/>
@@ -4351,6 +4436,7 @@
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
+      <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
@@ -4373,10 +4459,10 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
-      <c r="I342" s="1"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
+      <c r="M342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
@@ -4386,21 +4472,45 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
-      <c r="I343" s="1"/>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
+      <c r="M343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
+      <c r="Q343" s="1"/>
     </row>
     <row r="344" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+      <c r="H344" s="1"/>
+      <c r="J344" s="1"/>
+      <c r="K344" s="1"/>
+      <c r="L344" s="1"/>
+      <c r="M344" s="1"/>
+      <c r="N344" s="1"/>
+      <c r="O344" s="1"/>
+      <c r="P344" s="1"/>
+      <c r="Q344" s="1"/>
+    </row>
+    <row r="345" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="1"/>
+      <c r="J345" s="1"/>
+      <c r="K345" s="1"/>
+      <c r="L345" s="1"/>
+      <c r="N345" s="1"/>
+      <c r="O345" s="1"/>
+      <c r="P345" s="1"/>
+      <c r="Q345" s="1"/>
     </row>
     <row r="346" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
+      <c r="I346" s="1"/>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
@@ -4413,37 +4523,21 @@
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
+      <c r="I347" s="1"/>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
+      <c r="M347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
-      <c r="Q347" s="1"/>
     </row>
     <row r="348" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F348" s="1"/>
-      <c r="G348" s="1"/>
-      <c r="H348" s="1"/>
-      <c r="J348" s="1"/>
-      <c r="K348" s="1"/>
-      <c r="L348" s="1"/>
-      <c r="N348" s="1"/>
-      <c r="O348" s="1"/>
-      <c r="P348" s="1"/>
-      <c r="Q348" s="1"/>
+      <c r="M348" s="1"/>
     </row>
     <row r="349" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F349" s="1"/>
-      <c r="G349" s="1"/>
-      <c r="H349" s="1"/>
-      <c r="J349" s="1"/>
-      <c r="K349" s="1"/>
-      <c r="L349" s="1"/>
-      <c r="N349" s="1"/>
-      <c r="O349" s="1"/>
-      <c r="P349" s="1"/>
-      <c r="Q349" s="1"/>
+      <c r="M349" s="1"/>
     </row>
     <row r="350" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F350" s="1"/>
@@ -4452,6 +4546,7 @@
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
+      <c r="M350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
@@ -4464,6 +4559,7 @@
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
+      <c r="M351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
@@ -4473,23 +4569,48 @@
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
-      <c r="I352" s="1"/>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
+      <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
     </row>
+    <row r="353" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="1"/>
+      <c r="J353" s="1"/>
+      <c r="K353" s="1"/>
+      <c r="L353" s="1"/>
+      <c r="M353" s="1"/>
+      <c r="N353" s="1"/>
+      <c r="O353" s="1"/>
+      <c r="P353" s="1"/>
+      <c r="Q353" s="1"/>
+    </row>
+    <row r="354" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="J354" s="1"/>
+      <c r="K354" s="1"/>
+      <c r="L354" s="1"/>
+      <c r="N354" s="1"/>
+      <c r="O354" s="1"/>
+      <c r="P354" s="1"/>
+      <c r="Q354" s="1"/>
+    </row>
     <row r="355" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
-      <c r="I355" s="1"/>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
+      <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
@@ -4519,39 +4640,14 @@
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
-      <c r="Q357" s="1"/>
     </row>
     <row r="358" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F358" s="1"/>
-      <c r="G358" s="1"/>
-      <c r="H358" s="1"/>
-      <c r="I358" s="1"/>
-      <c r="J358" s="1"/>
-      <c r="K358" s="1"/>
-      <c r="L358" s="1"/>
-      <c r="N358" s="1"/>
-      <c r="O358" s="1"/>
-      <c r="P358" s="1"/>
-      <c r="Q358" s="1"/>
-    </row>
-    <row r="359" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F359" s="1"/>
-      <c r="G359" s="1"/>
-      <c r="H359" s="1"/>
-      <c r="I359" s="1"/>
-      <c r="J359" s="1"/>
-      <c r="K359" s="1"/>
-      <c r="L359" s="1"/>
-      <c r="N359" s="1"/>
-      <c r="O359" s="1"/>
-      <c r="P359" s="1"/>
-      <c r="Q359" s="1"/>
     </row>
     <row r="360" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
-      <c r="I360" s="1"/>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
@@ -4564,7 +4660,6 @@
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
-      <c r="I361" s="1"/>
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
@@ -4577,16 +4672,37 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
-      <c r="I362" s="1"/>
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
+      <c r="Q362" s="1"/>
     </row>
     <row r="363" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
+      <c r="H363" s="1"/>
+      <c r="J363" s="1"/>
+      <c r="K363" s="1"/>
+      <c r="L363" s="1"/>
+      <c r="N363" s="1"/>
+      <c r="O363" s="1"/>
+      <c r="P363" s="1"/>
+      <c r="Q363" s="1"/>
+    </row>
+    <row r="364" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
+      <c r="H364" s="1"/>
+      <c r="J364" s="1"/>
+      <c r="K364" s="1"/>
+      <c r="L364" s="1"/>
+      <c r="N364" s="1"/>
+      <c r="O364" s="1"/>
+      <c r="P364" s="1"/>
+      <c r="Q364" s="1"/>
     </row>
     <row r="365" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F365" s="1"/>
@@ -4604,6 +4720,7 @@
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
+      <c r="I366" s="1"/>
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
@@ -4612,34 +4729,11 @@
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
     </row>
-    <row r="367" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F367" s="1"/>
-      <c r="G367" s="1"/>
-      <c r="H367" s="1"/>
-      <c r="J367" s="1"/>
-      <c r="K367" s="1"/>
-      <c r="L367" s="1"/>
-      <c r="N367" s="1"/>
-      <c r="O367" s="1"/>
-      <c r="P367" s="1"/>
-      <c r="Q367" s="1"/>
-    </row>
-    <row r="368" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F368" s="1"/>
-      <c r="G368" s="1"/>
-      <c r="H368" s="1"/>
-      <c r="J368" s="1"/>
-      <c r="K368" s="1"/>
-      <c r="L368" s="1"/>
-      <c r="N368" s="1"/>
-      <c r="O368" s="1"/>
-      <c r="P368" s="1"/>
-      <c r="Q368" s="1"/>
-    </row>
     <row r="369" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
+      <c r="I369" s="1"/>
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
       <c r="L369" s="1"/>
@@ -4652,6 +4746,7 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
+      <c r="I370" s="1"/>
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
       <c r="L370" s="1"/>
@@ -4674,7 +4769,17 @@
       <c r="Q371" s="1"/>
     </row>
     <row r="372" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M372" s="1"/>
+      <c r="F372" s="1"/>
+      <c r="G372" s="1"/>
+      <c r="H372" s="1"/>
+      <c r="I372" s="1"/>
+      <c r="J372" s="1"/>
+      <c r="K372" s="1"/>
+      <c r="L372" s="1"/>
+      <c r="N372" s="1"/>
+      <c r="O372" s="1"/>
+      <c r="P372" s="1"/>
+      <c r="Q372" s="1"/>
     </row>
     <row r="373" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F373" s="1"/>
@@ -4684,237 +4789,219 @@
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
       <c r="L373" s="1"/>
-      <c r="M373" s="1"/>
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
       <c r="P373" s="1"/>
+      <c r="Q373" s="1"/>
     </row>
     <row r="374" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M374" s="1"/>
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
+      <c r="H374" s="1"/>
+      <c r="I374" s="1"/>
+      <c r="J374" s="1"/>
+      <c r="K374" s="1"/>
+      <c r="L374" s="1"/>
+      <c r="N374" s="1"/>
+      <c r="O374" s="1"/>
+      <c r="P374" s="1"/>
+      <c r="Q374" s="1"/>
+    </row>
+    <row r="375" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F375" s="1"/>
+      <c r="G375" s="1"/>
+      <c r="H375" s="1"/>
+      <c r="I375" s="1"/>
+      <c r="J375" s="1"/>
+      <c r="K375" s="1"/>
+      <c r="L375" s="1"/>
+      <c r="N375" s="1"/>
+      <c r="O375" s="1"/>
+      <c r="P375" s="1"/>
+      <c r="Q375" s="1"/>
+    </row>
+    <row r="376" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
+      <c r="H376" s="1"/>
+      <c r="I376" s="1"/>
+      <c r="J376" s="1"/>
+      <c r="K376" s="1"/>
+      <c r="L376" s="1"/>
+      <c r="N376" s="1"/>
+      <c r="O376" s="1"/>
+      <c r="P376" s="1"/>
     </row>
     <row r="377" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F377" s="1"/>
     </row>
-    <row r="385" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
+      <c r="H379" s="1"/>
+      <c r="J379" s="1"/>
+      <c r="K379" s="1"/>
+      <c r="L379" s="1"/>
+      <c r="N379" s="1"/>
+      <c r="O379" s="1"/>
+      <c r="P379" s="1"/>
+      <c r="Q379" s="1"/>
+    </row>
+    <row r="380" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F380" s="1"/>
+      <c r="G380" s="1"/>
+      <c r="H380" s="1"/>
+      <c r="J380" s="1"/>
+      <c r="K380" s="1"/>
+      <c r="L380" s="1"/>
+      <c r="N380" s="1"/>
+      <c r="O380" s="1"/>
+      <c r="P380" s="1"/>
+      <c r="Q380" s="1"/>
+    </row>
+    <row r="381" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F381" s="1"/>
+      <c r="G381" s="1"/>
+      <c r="H381" s="1"/>
+      <c r="J381" s="1"/>
+      <c r="K381" s="1"/>
+      <c r="L381" s="1"/>
+      <c r="N381" s="1"/>
+      <c r="O381" s="1"/>
+      <c r="P381" s="1"/>
+      <c r="Q381" s="1"/>
+    </row>
+    <row r="382" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F382" s="1"/>
+      <c r="G382" s="1"/>
+      <c r="H382" s="1"/>
+      <c r="J382" s="1"/>
+      <c r="K382" s="1"/>
+      <c r="L382" s="1"/>
+      <c r="N382" s="1"/>
+      <c r="O382" s="1"/>
+      <c r="P382" s="1"/>
+      <c r="Q382" s="1"/>
+    </row>
+    <row r="383" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F383" s="1"/>
+      <c r="G383" s="1"/>
+      <c r="H383" s="1"/>
+      <c r="J383" s="1"/>
+      <c r="K383" s="1"/>
+      <c r="L383" s="1"/>
+      <c r="N383" s="1"/>
+      <c r="O383" s="1"/>
+      <c r="P383" s="1"/>
+      <c r="Q383" s="1"/>
+    </row>
+    <row r="384" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F384" s="1"/>
+      <c r="G384" s="1"/>
+      <c r="H384" s="1"/>
+      <c r="J384" s="1"/>
+      <c r="K384" s="1"/>
+      <c r="L384" s="1"/>
+      <c r="N384" s="1"/>
+      <c r="O384" s="1"/>
+      <c r="P384" s="1"/>
+      <c r="Q384" s="1"/>
+    </row>
+    <row r="385" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F385" s="1"/>
-    </row>
-    <row r="392" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F392" s="1"/>
-    </row>
-    <row r="395" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F395" s="1"/>
-    </row>
-    <row r="396" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F396" s="1"/>
-    </row>
-    <row r="399" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G385" s="1"/>
+      <c r="H385" s="1"/>
+      <c r="I385" s="1"/>
+      <c r="J385" s="1"/>
+      <c r="K385" s="1"/>
+      <c r="L385" s="1"/>
+      <c r="N385" s="1"/>
+      <c r="O385" s="1"/>
+      <c r="P385" s="1"/>
+      <c r="Q385" s="1"/>
+    </row>
+    <row r="386" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M386" s="1"/>
+    </row>
+    <row r="387" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F387" s="1"/>
+      <c r="G387" s="1"/>
+      <c r="H387" s="1"/>
+      <c r="I387" s="1"/>
+      <c r="J387" s="1"/>
+      <c r="K387" s="1"/>
+      <c r="L387" s="1"/>
+      <c r="M387" s="1"/>
+      <c r="N387" s="1"/>
+      <c r="O387" s="1"/>
+      <c r="P387" s="1"/>
+    </row>
+    <row r="388" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M388" s="1"/>
+    </row>
+    <row r="391" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F391" s="1"/>
+    </row>
+    <row r="399" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F399" s="1"/>
     </row>
-    <row r="400" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F400" s="1"/>
-      <c r="G400" s="1"/>
-    </row>
-    <row r="401" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F401" s="1"/>
-    </row>
-    <row r="404" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F404" s="1"/>
-      <c r="G404" s="1"/>
-      <c r="H404" s="1"/>
-      <c r="I404" s="1"/>
-      <c r="J404" s="1"/>
-      <c r="K404" s="1"/>
-      <c r="L404" s="1"/>
-      <c r="M404" t="b">
+    <row r="406" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F406" s="1"/>
+    </row>
+    <row r="409" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F409" s="1"/>
+    </row>
+    <row r="410" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F410" s="1"/>
+    </row>
+    <row r="413" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F413" s="1"/>
+    </row>
+    <row r="414" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F414" s="1"/>
+      <c r="G414" s="1"/>
+    </row>
+    <row r="415" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F415" s="1"/>
+    </row>
+    <row r="418" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F418" s="1"/>
+      <c r="G418" s="1"/>
+      <c r="H418" s="1"/>
+      <c r="I418" s="1"/>
+      <c r="J418" s="1"/>
+      <c r="K418" s="1"/>
+      <c r="L418" s="1"/>
+      <c r="M418" t="b">
         <v>1</v>
       </c>
-      <c r="N404" s="1"/>
-      <c r="O404" s="1"/>
-      <c r="P404" s="1"/>
-    </row>
-    <row r="405" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F405" s="1"/>
-      <c r="G405" s="1"/>
-      <c r="H405" s="1"/>
-      <c r="I405" s="1"/>
-      <c r="J405" s="1"/>
-      <c r="K405" s="1"/>
-      <c r="L405" s="1"/>
-      <c r="N405" s="1"/>
-      <c r="O405" s="1"/>
-      <c r="P405" s="1"/>
-    </row>
-    <row r="406" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F406" s="1"/>
-      <c r="G406" s="1"/>
-      <c r="H406" s="1"/>
-      <c r="I406" s="1"/>
-      <c r="J406" s="1"/>
-      <c r="K406" s="1"/>
-      <c r="L406" s="1"/>
-      <c r="N406" s="1"/>
-      <c r="O406" s="1"/>
-      <c r="P406" s="1"/>
-    </row>
-    <row r="452" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F452" s="1"/>
-      <c r="G452" s="1"/>
-      <c r="H452" s="1"/>
-      <c r="I452" s="1"/>
-      <c r="J452" s="1"/>
-      <c r="K452" s="1"/>
-      <c r="L452" s="1"/>
-      <c r="N452" s="1"/>
-      <c r="O452" s="1"/>
-      <c r="P452" s="1"/>
-    </row>
-    <row r="453" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F453" s="1"/>
-      <c r="G453" s="1"/>
-      <c r="H453" s="1"/>
-      <c r="I453" s="1"/>
-      <c r="J453" s="1"/>
-      <c r="K453" s="1"/>
-      <c r="L453" s="1"/>
-      <c r="N453" s="1"/>
-      <c r="O453" s="1"/>
-      <c r="P453" s="1"/>
-    </row>
-    <row r="455" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E455" s="1"/>
-      <c r="F455" s="1"/>
-      <c r="G455" s="1"/>
-      <c r="H455" s="1"/>
-      <c r="I455" s="1"/>
-      <c r="J455" s="1"/>
-      <c r="K455" s="1"/>
-      <c r="L455" s="1"/>
-      <c r="N455" s="1"/>
-      <c r="O455" s="1"/>
-      <c r="P455" s="1"/>
-    </row>
-    <row r="456" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E456" s="1"/>
-      <c r="F456" s="1"/>
-      <c r="G456" s="1"/>
-      <c r="H456" s="1"/>
-      <c r="I456" s="1"/>
-      <c r="J456" s="1"/>
-      <c r="K456" s="1"/>
-      <c r="L456" s="1"/>
-      <c r="N456" s="1"/>
-      <c r="O456" s="1"/>
-      <c r="P456" s="1"/>
-    </row>
-    <row r="457" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F457" s="1"/>
-      <c r="G457" s="1"/>
-      <c r="H457" s="1"/>
-      <c r="I457" s="1"/>
-      <c r="J457" s="1"/>
-      <c r="K457" s="1"/>
-      <c r="L457" s="1"/>
-      <c r="N457" s="1"/>
-      <c r="O457" s="1"/>
-      <c r="P457" s="1"/>
-    </row>
-    <row r="458" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F458" s="1"/>
-      <c r="G458" s="1"/>
-      <c r="H458" s="1"/>
-      <c r="I458" s="1"/>
-      <c r="J458" s="1"/>
-      <c r="K458" s="1"/>
-      <c r="L458" s="1"/>
-      <c r="N458" s="1"/>
-      <c r="O458" s="1"/>
-      <c r="P458" s="1"/>
-    </row>
-    <row r="459" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F459" s="1"/>
-      <c r="G459" s="1"/>
-      <c r="H459" s="1"/>
-      <c r="I459" s="1"/>
-      <c r="J459" s="1"/>
-      <c r="K459" s="1"/>
-      <c r="L459" s="1"/>
-      <c r="N459" s="1"/>
-      <c r="O459" s="1"/>
-      <c r="P459" s="1"/>
-    </row>
-    <row r="460" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F460" s="1"/>
-      <c r="G460" s="1"/>
-      <c r="H460" s="1"/>
-      <c r="I460" s="1"/>
-      <c r="J460" s="1"/>
-      <c r="K460" s="1"/>
-      <c r="L460" s="1"/>
-      <c r="N460" s="1"/>
-      <c r="O460" s="1"/>
-      <c r="P460" s="1"/>
-    </row>
-    <row r="461" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F461" s="1"/>
-      <c r="G461" s="1"/>
-      <c r="H461" s="1"/>
-      <c r="I461" s="1"/>
-      <c r="J461" s="1"/>
-      <c r="K461" s="1"/>
-      <c r="L461" s="1"/>
-      <c r="N461" s="1"/>
-      <c r="O461" s="1"/>
-      <c r="P461" s="1"/>
-    </row>
-    <row r="462" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F462" s="1"/>
-      <c r="G462" s="1"/>
-      <c r="H462" s="1"/>
-      <c r="I462" s="1"/>
-      <c r="J462" s="1"/>
-      <c r="K462" s="1"/>
-      <c r="L462" s="1"/>
-      <c r="N462" s="1"/>
-      <c r="O462" s="1"/>
-      <c r="P462" s="1"/>
-    </row>
-    <row r="463" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F463" s="1"/>
-      <c r="G463" s="1"/>
-      <c r="H463" s="1"/>
-      <c r="I463" s="1"/>
-      <c r="J463" s="1"/>
-      <c r="K463" s="1"/>
-      <c r="L463" s="1"/>
-      <c r="N463" s="1"/>
-      <c r="O463" s="1"/>
-      <c r="P463" s="1"/>
-    </row>
-    <row r="464" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E464" s="1"/>
-      <c r="F464" s="1"/>
-      <c r="G464" s="1"/>
-      <c r="H464" s="1"/>
-      <c r="I464" s="1"/>
-      <c r="J464" s="1"/>
-      <c r="K464" s="1"/>
-      <c r="L464" s="1"/>
-      <c r="N464" s="1"/>
-      <c r="O464" s="1"/>
-      <c r="P464" s="1"/>
-    </row>
-    <row r="465" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E465" s="1"/>
-      <c r="F465" s="1"/>
-      <c r="G465" s="1"/>
-      <c r="H465" s="1"/>
-      <c r="I465" s="1"/>
-      <c r="J465" s="1"/>
-      <c r="K465" s="1"/>
-      <c r="L465" s="1"/>
-      <c r="N465" s="1"/>
-      <c r="O465" s="1"/>
-      <c r="P465" s="1"/>
+      <c r="N418" s="1"/>
+      <c r="O418" s="1"/>
+      <c r="P418" s="1"/>
+    </row>
+    <row r="419" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F419" s="1"/>
+      <c r="G419" s="1"/>
+      <c r="H419" s="1"/>
+      <c r="I419" s="1"/>
+      <c r="J419" s="1"/>
+      <c r="K419" s="1"/>
+      <c r="L419" s="1"/>
+      <c r="N419" s="1"/>
+      <c r="O419" s="1"/>
+      <c r="P419" s="1"/>
+    </row>
+    <row r="420" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F420" s="1"/>
+      <c r="G420" s="1"/>
+      <c r="H420" s="1"/>
+      <c r="I420" s="1"/>
+      <c r="J420" s="1"/>
+      <c r="K420" s="1"/>
+      <c r="L420" s="1"/>
+      <c r="N420" s="1"/>
+      <c r="O420" s="1"/>
+      <c r="P420" s="1"/>
     </row>
     <row r="466" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F466" s="1"/>
@@ -4940,19 +5027,8 @@
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
     </row>
-    <row r="468" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F468" s="1"/>
-      <c r="G468" s="1"/>
-      <c r="H468" s="1"/>
-      <c r="I468" s="1"/>
-      <c r="J468" s="1"/>
-      <c r="K468" s="1"/>
-      <c r="L468" s="1"/>
-      <c r="N468" s="1"/>
-      <c r="O468" s="1"/>
-      <c r="P468" s="1"/>
-    </row>
     <row r="469" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
@@ -4964,45 +5040,180 @@
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
     </row>
-    <row r="488" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M488" s="1"/>
-    </row>
-    <row r="490" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M490" s="1"/>
-    </row>
-    <row r="491" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M491" s="1"/>
-    </row>
-    <row r="492" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M492" s="1"/>
-    </row>
-    <row r="493" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M493" s="1"/>
-    </row>
-    <row r="494" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M494" s="1"/>
-    </row>
-    <row r="495" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M495" s="1"/>
-    </row>
-    <row r="496" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M496" s="1"/>
-    </row>
-    <row r="499" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M499" s="1"/>
-    </row>
-    <row r="500" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M500" s="1"/>
-    </row>
-    <row r="501" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M501" s="1"/>
+    <row r="470" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+      <c r="H470" s="1"/>
+      <c r="I470" s="1"/>
+      <c r="J470" s="1"/>
+      <c r="K470" s="1"/>
+      <c r="L470" s="1"/>
+      <c r="N470" s="1"/>
+      <c r="O470" s="1"/>
+      <c r="P470" s="1"/>
+    </row>
+    <row r="471" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+      <c r="H471" s="1"/>
+      <c r="I471" s="1"/>
+      <c r="J471" s="1"/>
+      <c r="K471" s="1"/>
+      <c r="L471" s="1"/>
+      <c r="N471" s="1"/>
+      <c r="O471" s="1"/>
+      <c r="P471" s="1"/>
+    </row>
+    <row r="472" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+      <c r="H472" s="1"/>
+      <c r="I472" s="1"/>
+      <c r="J472" s="1"/>
+      <c r="K472" s="1"/>
+      <c r="L472" s="1"/>
+      <c r="N472" s="1"/>
+      <c r="O472" s="1"/>
+      <c r="P472" s="1"/>
+    </row>
+    <row r="473" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+      <c r="H473" s="1"/>
+      <c r="I473" s="1"/>
+      <c r="J473" s="1"/>
+      <c r="K473" s="1"/>
+      <c r="L473" s="1"/>
+      <c r="N473" s="1"/>
+      <c r="O473" s="1"/>
+      <c r="P473" s="1"/>
+    </row>
+    <row r="474" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+      <c r="H474" s="1"/>
+      <c r="I474" s="1"/>
+      <c r="J474" s="1"/>
+      <c r="K474" s="1"/>
+      <c r="L474" s="1"/>
+      <c r="N474" s="1"/>
+      <c r="O474" s="1"/>
+      <c r="P474" s="1"/>
+    </row>
+    <row r="475" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+      <c r="H475" s="1"/>
+      <c r="I475" s="1"/>
+      <c r="J475" s="1"/>
+      <c r="K475" s="1"/>
+      <c r="L475" s="1"/>
+      <c r="N475" s="1"/>
+      <c r="O475" s="1"/>
+      <c r="P475" s="1"/>
+    </row>
+    <row r="476" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+      <c r="H476" s="1"/>
+      <c r="I476" s="1"/>
+      <c r="J476" s="1"/>
+      <c r="K476" s="1"/>
+      <c r="L476" s="1"/>
+      <c r="N476" s="1"/>
+      <c r="O476" s="1"/>
+      <c r="P476" s="1"/>
+    </row>
+    <row r="477" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+      <c r="H477" s="1"/>
+      <c r="I477" s="1"/>
+      <c r="J477" s="1"/>
+      <c r="K477" s="1"/>
+      <c r="L477" s="1"/>
+      <c r="N477" s="1"/>
+      <c r="O477" s="1"/>
+      <c r="P477" s="1"/>
+    </row>
+    <row r="478" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+      <c r="H478" s="1"/>
+      <c r="I478" s="1"/>
+      <c r="J478" s="1"/>
+      <c r="K478" s="1"/>
+      <c r="L478" s="1"/>
+      <c r="N478" s="1"/>
+      <c r="O478" s="1"/>
+      <c r="P478" s="1"/>
+    </row>
+    <row r="479" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+      <c r="H479" s="1"/>
+      <c r="I479" s="1"/>
+      <c r="J479" s="1"/>
+      <c r="K479" s="1"/>
+      <c r="L479" s="1"/>
+      <c r="N479" s="1"/>
+      <c r="O479" s="1"/>
+      <c r="P479" s="1"/>
+    </row>
+    <row r="480" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+      <c r="H480" s="1"/>
+      <c r="I480" s="1"/>
+      <c r="J480" s="1"/>
+      <c r="K480" s="1"/>
+      <c r="L480" s="1"/>
+      <c r="N480" s="1"/>
+      <c r="O480" s="1"/>
+      <c r="P480" s="1"/>
+    </row>
+    <row r="481" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+      <c r="H481" s="1"/>
+      <c r="I481" s="1"/>
+      <c r="J481" s="1"/>
+      <c r="K481" s="1"/>
+      <c r="L481" s="1"/>
+      <c r="N481" s="1"/>
+      <c r="O481" s="1"/>
+      <c r="P481" s="1"/>
+    </row>
+    <row r="482" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+      <c r="H482" s="1"/>
+      <c r="I482" s="1"/>
+      <c r="J482" s="1"/>
+      <c r="K482" s="1"/>
+      <c r="L482" s="1"/>
+      <c r="N482" s="1"/>
+      <c r="O482" s="1"/>
+      <c r="P482" s="1"/>
+    </row>
+    <row r="483" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+      <c r="H483" s="1"/>
+      <c r="I483" s="1"/>
+      <c r="J483" s="1"/>
+      <c r="K483" s="1"/>
+      <c r="L483" s="1"/>
+      <c r="N483" s="1"/>
+      <c r="O483" s="1"/>
+      <c r="P483" s="1"/>
     </row>
     <row r="502" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M502" s="1"/>
     </row>
-    <row r="503" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M503" s="1"/>
-    </row>
     <row r="504" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M504" s="1"/>
     </row>
@@ -5012,42 +5223,42 @@
     <row r="506" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M506" s="1"/>
     </row>
+    <row r="507" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M507" s="1"/>
+    </row>
+    <row r="508" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M508" s="1"/>
+    </row>
+    <row r="509" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M509" s="1"/>
+    </row>
+    <row r="510" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M510" s="1"/>
+    </row>
+    <row r="513" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M513" s="1"/>
+    </row>
+    <row r="514" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M514" s="1"/>
+    </row>
+    <row r="515" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M515" s="1"/>
+    </row>
+    <row r="516" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M516" s="1"/>
+    </row>
+    <row r="517" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M517" s="1"/>
+    </row>
+    <row r="518" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M518" s="1"/>
+    </row>
     <row r="519" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M519" s="1"/>
     </row>
     <row r="520" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M520" s="1"/>
     </row>
-    <row r="521" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M521" s="1"/>
-    </row>
-    <row r="522" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M522" s="1"/>
-    </row>
-    <row r="523" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M523" s="1"/>
-    </row>
-    <row r="524" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M524" s="1"/>
-    </row>
-    <row r="525" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M525" s="1"/>
-    </row>
-    <row r="526" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M526" s="1"/>
-    </row>
-    <row r="529" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M529" s="1"/>
-    </row>
-    <row r="530" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M530" s="1"/>
-    </row>
-    <row r="531" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M531" s="1"/>
-    </row>
-    <row r="532" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M532" s="1"/>
-    </row>
     <row r="533" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M533" s="1"/>
     </row>
@@ -5060,6 +5271,9 @@
     <row r="536" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M536" s="1"/>
     </row>
+    <row r="537" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M537" s="1"/>
+    </row>
     <row r="538" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M538" s="1"/>
     </row>
@@ -5069,12 +5283,6 @@
     <row r="540" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M540" s="1"/>
     </row>
-    <row r="541" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M541" s="1"/>
-    </row>
-    <row r="542" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M542" s="1"/>
-    </row>
     <row r="543" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M543" s="1"/>
     </row>
@@ -5084,6 +5292,12 @@
     <row r="545" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M545" s="1"/>
     </row>
+    <row r="546" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M546" s="1"/>
+    </row>
+    <row r="547" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M547" s="1"/>
+    </row>
     <row r="548" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M548" s="1"/>
     </row>
@@ -5093,9 +5307,6 @@
     <row r="550" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M550" s="1"/>
     </row>
-    <row r="551" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M551" s="1"/>
-    </row>
     <row r="552" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M552" s="1"/>
     </row>
@@ -5108,18 +5319,18 @@
     <row r="555" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M555" s="1"/>
     </row>
+    <row r="556" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M556" s="1"/>
+    </row>
+    <row r="557" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M557" s="1"/>
+    </row>
     <row r="558" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M558" s="1"/>
     </row>
     <row r="559" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M559" s="1"/>
     </row>
-    <row r="560" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M560" s="1"/>
-    </row>
-    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M561" s="1"/>
-    </row>
     <row r="562" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M562" s="1"/>
     </row>
@@ -5132,18 +5343,18 @@
     <row r="565" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M565" s="1"/>
     </row>
+    <row r="566" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M566" s="1"/>
+    </row>
+    <row r="567" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M567" s="1"/>
+    </row>
     <row r="568" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M568" s="1"/>
     </row>
     <row r="569" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M569" s="1"/>
     </row>
-    <row r="570" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M570" s="1"/>
-    </row>
-    <row r="571" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M571" s="1"/>
-    </row>
     <row r="572" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M572" s="1"/>
     </row>
@@ -5153,6 +5364,12 @@
     <row r="574" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M574" s="1"/>
     </row>
+    <row r="575" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M575" s="1"/>
+    </row>
+    <row r="576" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M576" s="1"/>
+    </row>
     <row r="577" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M577" s="1"/>
     </row>
@@ -5162,12 +5379,6 @@
     <row r="579" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M579" s="1"/>
     </row>
-    <row r="580" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M580" s="1"/>
-    </row>
-    <row r="581" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M581" s="1"/>
-    </row>
     <row r="582" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M582" s="1"/>
     </row>
@@ -5177,18 +5388,18 @@
     <row r="584" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M584" s="1"/>
     </row>
+    <row r="585" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M585" s="1"/>
+    </row>
+    <row r="586" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M586" s="1"/>
+    </row>
     <row r="587" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M587" s="1"/>
     </row>
     <row r="588" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M588" s="1"/>
     </row>
-    <row r="589" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M589" s="1"/>
-    </row>
-    <row r="590" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M590" s="1"/>
-    </row>
     <row r="591" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M591" s="1"/>
     </row>
@@ -5201,18 +5412,18 @@
     <row r="594" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M594" s="1"/>
     </row>
+    <row r="595" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M595" s="1"/>
+    </row>
+    <row r="596" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M596" s="1"/>
+    </row>
     <row r="597" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M597" s="1"/>
     </row>
     <row r="598" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M598" s="1"/>
     </row>
-    <row r="599" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M599" s="1"/>
-    </row>
-    <row r="600" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M600" s="1"/>
-    </row>
     <row r="601" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M601" s="1"/>
     </row>
@@ -5225,18 +5436,18 @@
     <row r="604" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M604" s="1"/>
     </row>
+    <row r="605" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M605" s="1"/>
+    </row>
+    <row r="606" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M606" s="1"/>
+    </row>
     <row r="607" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M607" s="1"/>
     </row>
     <row r="608" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M608" s="1"/>
     </row>
-    <row r="609" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M609" s="1"/>
-    </row>
-    <row r="610" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M610" s="1"/>
-    </row>
     <row r="611" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M611" s="1"/>
     </row>
@@ -5246,6 +5457,12 @@
     <row r="613" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M613" s="1"/>
     </row>
+    <row r="614" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M614" s="1"/>
+    </row>
+    <row r="615" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M615" s="1"/>
+    </row>
     <row r="616" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M616" s="1"/>
     </row>
@@ -5255,12 +5472,6 @@
     <row r="618" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M618" s="1"/>
     </row>
-    <row r="619" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M619" s="1"/>
-    </row>
-    <row r="620" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M620" s="1"/>
-    </row>
     <row r="621" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M621" s="1"/>
     </row>
@@ -5270,18 +5481,18 @@
     <row r="623" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M623" s="1"/>
     </row>
+    <row r="624" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M624" s="1"/>
+    </row>
+    <row r="625" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M625" s="1"/>
+    </row>
     <row r="626" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M626" s="1"/>
     </row>
     <row r="627" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M627" s="1"/>
     </row>
-    <row r="628" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M628" s="1"/>
-    </row>
-    <row r="629" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M629" s="1"/>
-    </row>
     <row r="630" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M630" s="1"/>
     </row>
@@ -5294,18 +5505,18 @@
     <row r="633" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M633" s="1"/>
     </row>
+    <row r="634" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M634" s="1"/>
+    </row>
+    <row r="635" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M635" s="1"/>
+    </row>
     <row r="636" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M636" s="1"/>
     </row>
     <row r="637" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M637" s="1"/>
     </row>
-    <row r="638" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M638" s="1"/>
-    </row>
-    <row r="639" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M639" s="1"/>
-    </row>
     <row r="640" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M640" s="1"/>
     </row>
@@ -5318,18 +5529,18 @@
     <row r="643" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M643" s="1"/>
     </row>
+    <row r="644" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M644" s="1"/>
+    </row>
+    <row r="645" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M645" s="1"/>
+    </row>
     <row r="646" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M646" s="1"/>
     </row>
     <row r="647" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M647" s="1"/>
     </row>
-    <row r="648" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M648" s="1"/>
-    </row>
-    <row r="649" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M649" s="1"/>
-    </row>
     <row r="650" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M650" s="1"/>
     </row>
@@ -5339,6 +5550,12 @@
     <row r="652" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M652" s="1"/>
     </row>
+    <row r="653" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M653" s="1"/>
+    </row>
+    <row r="654" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M654" s="1"/>
+    </row>
     <row r="655" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M655" s="1"/>
     </row>
@@ -5348,12 +5565,6 @@
     <row r="657" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M657" s="1"/>
     </row>
-    <row r="658" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M658" s="1"/>
-    </row>
-    <row r="659" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M659" s="1"/>
-    </row>
     <row r="660" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M660" s="1"/>
     </row>
@@ -5363,18 +5574,18 @@
     <row r="662" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M662" s="1"/>
     </row>
+    <row r="663" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M663" s="1"/>
+    </row>
+    <row r="664" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M664" s="1"/>
+    </row>
     <row r="665" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M665" s="1"/>
     </row>
     <row r="666" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M666" s="1"/>
     </row>
-    <row r="667" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M667" s="1"/>
-    </row>
-    <row r="668" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M668" s="1"/>
-    </row>
     <row r="669" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M669" s="1"/>
     </row>
@@ -5384,48 +5595,48 @@
     <row r="671" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M671" s="1"/>
     </row>
+    <row r="672" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M672" s="1"/>
+    </row>
     <row r="673" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M673" s="1"/>
     </row>
-    <row r="749" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M749" s="1"/>
-    </row>
-    <row r="751" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M751" s="1"/>
-    </row>
-    <row r="752" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M752" s="1"/>
-    </row>
-    <row r="753" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M753" s="1"/>
-    </row>
-    <row r="754" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M754" s="1"/>
-    </row>
-    <row r="755" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M755" s="1"/>
-    </row>
-    <row r="756" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M756" s="1"/>
-    </row>
-    <row r="757" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M757" s="1"/>
-    </row>
-    <row r="760" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M760" s="1"/>
-    </row>
-    <row r="761" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M761" s="1"/>
-    </row>
-    <row r="762" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M762" s="1"/>
+    <row r="674" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M674" s="1"/>
+    </row>
+    <row r="675" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M675" s="1"/>
+    </row>
+    <row r="676" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M676" s="1"/>
+    </row>
+    <row r="679" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M679" s="1"/>
+    </row>
+    <row r="680" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M680" s="1"/>
+    </row>
+    <row r="681" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M681" s="1"/>
+    </row>
+    <row r="682" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M682" s="1"/>
+    </row>
+    <row r="683" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M683" s="1"/>
+    </row>
+    <row r="684" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M684" s="1"/>
+    </row>
+    <row r="685" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M685" s="1"/>
+    </row>
+    <row r="687" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M687" s="1"/>
     </row>
     <row r="763" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M763" s="1"/>
     </row>
-    <row r="764" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M764" s="1"/>
-    </row>
     <row r="765" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M765" s="1"/>
     </row>
@@ -5435,42 +5646,42 @@
     <row r="767" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M767" s="1"/>
     </row>
+    <row r="768" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M768" s="1"/>
+    </row>
+    <row r="769" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M769" s="1"/>
+    </row>
+    <row r="770" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M770" s="1"/>
+    </row>
+    <row r="771" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M771" s="1"/>
+    </row>
+    <row r="774" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M774" s="1"/>
+    </row>
+    <row r="775" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M775" s="1"/>
+    </row>
+    <row r="776" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M776" s="1"/>
+    </row>
+    <row r="777" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M777" s="1"/>
+    </row>
+    <row r="778" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M778" s="1"/>
+    </row>
+    <row r="779" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M779" s="1"/>
+    </row>
     <row r="780" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M780" s="1"/>
     </row>
     <row r="781" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M781" s="1"/>
     </row>
-    <row r="782" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M782" s="1"/>
-    </row>
-    <row r="783" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M783" s="1"/>
-    </row>
-    <row r="784" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M784" s="1"/>
-    </row>
-    <row r="785" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M785" s="1"/>
-    </row>
-    <row r="786" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M786" s="1"/>
-    </row>
-    <row r="787" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M787" s="1"/>
-    </row>
-    <row r="790" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M790" s="1"/>
-    </row>
-    <row r="791" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M791" s="1"/>
-    </row>
-    <row r="792" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M792" s="1"/>
-    </row>
-    <row r="793" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M793" s="1"/>
-    </row>
     <row r="794" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M794" s="1"/>
     </row>
@@ -5483,6 +5694,9 @@
     <row r="797" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M797" s="1"/>
     </row>
+    <row r="798" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M798" s="1"/>
+    </row>
     <row r="799" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M799" s="1"/>
     </row>
@@ -5492,12 +5706,6 @@
     <row r="801" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M801" s="1"/>
     </row>
-    <row r="802" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M802" s="1"/>
-    </row>
-    <row r="803" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M803" s="1"/>
-    </row>
     <row r="804" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M804" s="1"/>
     </row>
@@ -5507,6 +5715,12 @@
     <row r="806" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M806" s="1"/>
     </row>
+    <row r="807" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M807" s="1"/>
+    </row>
+    <row r="808" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M808" s="1"/>
+    </row>
     <row r="809" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M809" s="1"/>
     </row>
@@ -5516,9 +5730,6 @@
     <row r="811" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M811" s="1"/>
     </row>
-    <row r="812" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M812" s="1"/>
-    </row>
     <row r="813" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M813" s="1"/>
     </row>
@@ -5531,18 +5742,18 @@
     <row r="816" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M816" s="1"/>
     </row>
+    <row r="817" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M817" s="1"/>
+    </row>
+    <row r="818" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M818" s="1"/>
+    </row>
     <row r="819" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M819" s="1"/>
     </row>
     <row r="820" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M820" s="1"/>
     </row>
-    <row r="821" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M821" s="1"/>
-    </row>
-    <row r="822" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M822" s="1"/>
-    </row>
     <row r="823" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M823" s="1"/>
     </row>
@@ -5555,18 +5766,18 @@
     <row r="826" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M826" s="1"/>
     </row>
+    <row r="827" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M827" s="1"/>
+    </row>
+    <row r="828" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M828" s="1"/>
+    </row>
     <row r="829" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M829" s="1"/>
     </row>
     <row r="830" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M830" s="1"/>
     </row>
-    <row r="831" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M831" s="1"/>
-    </row>
-    <row r="832" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M832" s="1"/>
-    </row>
     <row r="833" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M833" s="1"/>
     </row>
@@ -5576,6 +5787,12 @@
     <row r="835" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M835" s="1"/>
     </row>
+    <row r="836" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M836" s="1"/>
+    </row>
+    <row r="837" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M837" s="1"/>
+    </row>
     <row r="838" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M838" s="1"/>
     </row>
@@ -5585,12 +5802,6 @@
     <row r="840" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M840" s="1"/>
     </row>
-    <row r="841" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M841" s="1"/>
-    </row>
-    <row r="842" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M842" s="1"/>
-    </row>
     <row r="843" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M843" s="1"/>
     </row>
@@ -5600,18 +5811,18 @@
     <row r="845" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M845" s="1"/>
     </row>
+    <row r="846" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M846" s="1"/>
+    </row>
+    <row r="847" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M847" s="1"/>
+    </row>
     <row r="848" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M848" s="1"/>
     </row>
     <row r="849" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M849" s="1"/>
     </row>
-    <row r="850" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M850" s="1"/>
-    </row>
-    <row r="851" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M851" s="1"/>
-    </row>
     <row r="852" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M852" s="1"/>
     </row>
@@ -5624,18 +5835,18 @@
     <row r="855" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M855" s="1"/>
     </row>
+    <row r="856" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M856" s="1"/>
+    </row>
+    <row r="857" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M857" s="1"/>
+    </row>
     <row r="858" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M858" s="1"/>
     </row>
     <row r="859" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M859" s="1"/>
     </row>
-    <row r="860" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M860" s="1"/>
-    </row>
-    <row r="861" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M861" s="1"/>
-    </row>
     <row r="862" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M862" s="1"/>
     </row>
@@ -5648,18 +5859,18 @@
     <row r="865" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M865" s="1"/>
     </row>
+    <row r="866" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M866" s="1"/>
+    </row>
+    <row r="867" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M867" s="1"/>
+    </row>
     <row r="868" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M868" s="1"/>
     </row>
     <row r="869" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M869" s="1"/>
     </row>
-    <row r="870" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M870" s="1"/>
-    </row>
-    <row r="871" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M871" s="1"/>
-    </row>
     <row r="872" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M872" s="1"/>
     </row>
@@ -5669,6 +5880,12 @@
     <row r="874" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M874" s="1"/>
     </row>
+    <row r="875" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M875" s="1"/>
+    </row>
+    <row r="876" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M876" s="1"/>
+    </row>
     <row r="877" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M877" s="1"/>
     </row>
@@ -5678,12 +5895,6 @@
     <row r="879" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M879" s="1"/>
     </row>
-    <row r="880" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M880" s="1"/>
-    </row>
-    <row r="881" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M881" s="1"/>
-    </row>
     <row r="882" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M882" s="1"/>
     </row>
@@ -5693,18 +5904,18 @@
     <row r="884" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M884" s="1"/>
     </row>
+    <row r="885" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M885" s="1"/>
+    </row>
+    <row r="886" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M886" s="1"/>
+    </row>
     <row r="887" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M887" s="1"/>
     </row>
     <row r="888" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M888" s="1"/>
     </row>
-    <row r="889" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M889" s="1"/>
-    </row>
-    <row r="890" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M890" s="1"/>
-    </row>
     <row r="891" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M891" s="1"/>
     </row>
@@ -5717,18 +5928,18 @@
     <row r="894" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M894" s="1"/>
     </row>
+    <row r="895" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M895" s="1"/>
+    </row>
+    <row r="896" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M896" s="1"/>
+    </row>
     <row r="897" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M897" s="1"/>
     </row>
     <row r="898" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M898" s="1"/>
     </row>
-    <row r="899" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M899" s="1"/>
-    </row>
-    <row r="900" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M900" s="1"/>
-    </row>
     <row r="901" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M901" s="1"/>
     </row>
@@ -5741,18 +5952,18 @@
     <row r="904" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M904" s="1"/>
     </row>
+    <row r="905" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M905" s="1"/>
+    </row>
+    <row r="906" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M906" s="1"/>
+    </row>
     <row r="907" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M907" s="1"/>
     </row>
     <row r="908" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M908" s="1"/>
     </row>
-    <row r="909" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M909" s="1"/>
-    </row>
-    <row r="910" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M910" s="1"/>
-    </row>
     <row r="911" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M911" s="1"/>
     </row>
@@ -5762,6 +5973,12 @@
     <row r="913" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M913" s="1"/>
     </row>
+    <row r="914" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M914" s="1"/>
+    </row>
+    <row r="915" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M915" s="1"/>
+    </row>
     <row r="916" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M916" s="1"/>
     </row>
@@ -5771,12 +5988,6 @@
     <row r="918" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M918" s="1"/>
     </row>
-    <row r="919" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M919" s="1"/>
-    </row>
-    <row r="920" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M920" s="1"/>
-    </row>
     <row r="921" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M921" s="1"/>
     </row>
@@ -5786,18 +5997,18 @@
     <row r="923" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M923" s="1"/>
     </row>
+    <row r="924" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M924" s="1"/>
+    </row>
+    <row r="925" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M925" s="1"/>
+    </row>
     <row r="926" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M926" s="1"/>
     </row>
     <row r="927" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M927" s="1"/>
     </row>
-    <row r="928" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M928" s="1"/>
-    </row>
-    <row r="929" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M929" s="1"/>
-    </row>
     <row r="930" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M930" s="1"/>
     </row>
@@ -5807,81 +6018,81 @@
     <row r="932" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M932" s="1"/>
     </row>
+    <row r="933" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M933" s="1"/>
+    </row>
     <row r="934" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M934" s="1"/>
     </row>
-    <row r="967" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M967" s="1"/>
-    </row>
-    <row r="968" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M968" s="1"/>
-    </row>
-    <row r="969" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M969" s="1"/>
-    </row>
-    <row r="972" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M972" s="1"/>
-    </row>
-    <row r="973" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M973" s="1"/>
-    </row>
-    <row r="974" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M974" s="1"/>
-    </row>
-    <row r="975" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M975" s="1"/>
-    </row>
-    <row r="976" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M976" s="1"/>
-    </row>
-    <row r="977" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M977" s="1"/>
-    </row>
-    <row r="978" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M978" s="1"/>
-    </row>
-    <row r="980" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M980" s="1"/>
-    </row>
-    <row r="1067" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1067" s="1"/>
-    </row>
-    <row r="1069" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1069" s="1"/>
-    </row>
-    <row r="1070" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1070" s="1"/>
-    </row>
-    <row r="1071" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1071" s="1"/>
-    </row>
-    <row r="1072" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1072" s="1"/>
-    </row>
-    <row r="1073" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1073" s="1"/>
-    </row>
-    <row r="1074" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1074" s="1"/>
-    </row>
-    <row r="1075" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1075" s="1"/>
-    </row>
-    <row r="1078" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1078" s="1"/>
-    </row>
-    <row r="1079" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1079" s="1"/>
-    </row>
-    <row r="1080" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1080" s="1"/>
+    <row r="935" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M935" s="1"/>
+    </row>
+    <row r="936" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M936" s="1"/>
+    </row>
+    <row r="937" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M937" s="1"/>
+    </row>
+    <row r="940" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M940" s="1"/>
+    </row>
+    <row r="941" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M941" s="1"/>
+    </row>
+    <row r="942" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M942" s="1"/>
+    </row>
+    <row r="943" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M943" s="1"/>
+    </row>
+    <row r="944" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M944" s="1"/>
+    </row>
+    <row r="945" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M945" s="1"/>
+    </row>
+    <row r="946" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M946" s="1"/>
+    </row>
+    <row r="948" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M948" s="1"/>
+    </row>
+    <row r="981" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M981" s="1"/>
+    </row>
+    <row r="982" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M982" s="1"/>
+    </row>
+    <row r="983" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M983" s="1"/>
+    </row>
+    <row r="986" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M986" s="1"/>
+    </row>
+    <row r="987" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M987" s="1"/>
+    </row>
+    <row r="988" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M988" s="1"/>
+    </row>
+    <row r="989" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M989" s="1"/>
+    </row>
+    <row r="990" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M990" s="1"/>
+    </row>
+    <row r="991" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M991" s="1"/>
+    </row>
+    <row r="992" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M992" s="1"/>
+    </row>
+    <row r="994" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M994" s="1"/>
     </row>
     <row r="1081" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1081" s="1"/>
     </row>
-    <row r="1082" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1082" s="1"/>
-    </row>
     <row r="1083" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1083" s="1"/>
     </row>
@@ -5891,6 +6102,33 @@
     <row r="1085" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1085" s="1"/>
     </row>
+    <row r="1086" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1086" s="1"/>
+    </row>
+    <row r="1087" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1087" s="1"/>
+    </row>
+    <row r="1088" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1088" s="1"/>
+    </row>
+    <row r="1089" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1089" s="1"/>
+    </row>
+    <row r="1092" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1092" s="1"/>
+    </row>
+    <row r="1093" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1093" s="1"/>
+    </row>
+    <row r="1094" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1094" s="1"/>
+    </row>
+    <row r="1095" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1095" s="1"/>
+    </row>
+    <row r="1096" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1096" s="1"/>
+    </row>
     <row r="1097" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1097" s="1"/>
     </row>
@@ -5900,33 +6138,6 @@
     <row r="1099" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1099" s="1"/>
     </row>
-    <row r="1100" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1100" s="1"/>
-    </row>
-    <row r="1101" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1101" s="1"/>
-    </row>
-    <row r="1102" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1102" s="1"/>
-    </row>
-    <row r="1103" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1103" s="1"/>
-    </row>
-    <row r="1104" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1104" s="1"/>
-    </row>
-    <row r="1107" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1107" s="1"/>
-    </row>
-    <row r="1108" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1108" s="1"/>
-    </row>
-    <row r="1109" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1109" s="1"/>
-    </row>
-    <row r="1110" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1110" s="1"/>
-    </row>
     <row r="1111" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1111" s="1"/>
     </row>
@@ -5939,6 +6150,9 @@
     <row r="1114" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1114" s="1"/>
     </row>
+    <row r="1115" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1115" s="1"/>
+    </row>
     <row r="1116" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1116" s="1"/>
     </row>
@@ -5948,12 +6162,6 @@
     <row r="1118" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1118" s="1"/>
     </row>
-    <row r="1119" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1119" s="1"/>
-    </row>
-    <row r="1120" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1120" s="1"/>
-    </row>
     <row r="1121" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1121" s="1"/>
     </row>
@@ -5963,6 +6171,12 @@
     <row r="1123" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1123" s="1"/>
     </row>
+    <row r="1124" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1124" s="1"/>
+    </row>
+    <row r="1125" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1125" s="1"/>
+    </row>
     <row r="1126" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1126" s="1"/>
     </row>
@@ -5972,9 +6186,6 @@
     <row r="1128" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1128" s="1"/>
     </row>
-    <row r="1129" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1129" s="1"/>
-    </row>
     <row r="1130" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1130" s="1"/>
     </row>
@@ -5987,18 +6198,18 @@
     <row r="1133" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1133" s="1"/>
     </row>
+    <row r="1134" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1134" s="1"/>
+    </row>
+    <row r="1135" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1135" s="1"/>
+    </row>
     <row r="1136" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1136" s="1"/>
     </row>
     <row r="1137" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1137" s="1"/>
     </row>
-    <row r="1138" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1138" s="1"/>
-    </row>
-    <row r="1139" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1139" s="1"/>
-    </row>
     <row r="1140" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1140" s="1"/>
     </row>
@@ -6011,18 +6222,18 @@
     <row r="1143" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1143" s="1"/>
     </row>
+    <row r="1144" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1144" s="1"/>
+    </row>
+    <row r="1145" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1145" s="1"/>
+    </row>
     <row r="1146" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1146" s="1"/>
     </row>
     <row r="1147" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1147" s="1"/>
     </row>
-    <row r="1148" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1148" s="1"/>
-    </row>
-    <row r="1149" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1149" s="1"/>
-    </row>
     <row r="1150" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1150" s="1"/>
     </row>
@@ -6032,6 +6243,12 @@
     <row r="1152" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1152" s="1"/>
     </row>
+    <row r="1153" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1153" s="1"/>
+    </row>
+    <row r="1154" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1154" s="1"/>
+    </row>
     <row r="1155" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1155" s="1"/>
     </row>
@@ -6041,12 +6258,6 @@
     <row r="1157" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1157" s="1"/>
     </row>
-    <row r="1158" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1158" s="1"/>
-    </row>
-    <row r="1159" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1159" s="1"/>
-    </row>
     <row r="1160" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1160" s="1"/>
     </row>
@@ -6056,18 +6267,18 @@
     <row r="1162" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1162" s="1"/>
     </row>
+    <row r="1163" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1163" s="1"/>
+    </row>
+    <row r="1164" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1164" s="1"/>
+    </row>
     <row r="1165" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1165" s="1"/>
     </row>
     <row r="1166" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1166" s="1"/>
     </row>
-    <row r="1167" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1167" s="1"/>
-    </row>
-    <row r="1168" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1168" s="1"/>
-    </row>
     <row r="1169" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1169" s="1"/>
     </row>
@@ -6080,18 +6291,18 @@
     <row r="1172" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1172" s="1"/>
     </row>
+    <row r="1173" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1173" s="1"/>
+    </row>
+    <row r="1174" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1174" s="1"/>
+    </row>
     <row r="1175" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1175" s="1"/>
     </row>
     <row r="1176" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1176" s="1"/>
     </row>
-    <row r="1177" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1177" s="1"/>
-    </row>
-    <row r="1178" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1178" s="1"/>
-    </row>
     <row r="1179" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1179" s="1"/>
     </row>
@@ -6104,18 +6315,18 @@
     <row r="1182" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1182" s="1"/>
     </row>
+    <row r="1183" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1183" s="1"/>
+    </row>
+    <row r="1184" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1184" s="1"/>
+    </row>
     <row r="1185" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1185" s="1"/>
     </row>
     <row r="1186" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1186" s="1"/>
     </row>
-    <row r="1187" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1187" s="1"/>
-    </row>
-    <row r="1188" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1188" s="1"/>
-    </row>
     <row r="1189" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1189" s="1"/>
     </row>
@@ -6125,6 +6336,12 @@
     <row r="1191" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1191" s="1"/>
     </row>
+    <row r="1192" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1192" s="1"/>
+    </row>
+    <row r="1193" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1193" s="1"/>
+    </row>
     <row r="1194" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1194" s="1"/>
     </row>
@@ -6134,12 +6351,6 @@
     <row r="1196" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1196" s="1"/>
     </row>
-    <row r="1197" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1197" s="1"/>
-    </row>
-    <row r="1198" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1198" s="1"/>
-    </row>
     <row r="1199" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1199" s="1"/>
     </row>
@@ -6149,18 +6360,18 @@
     <row r="1201" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1201" s="1"/>
     </row>
+    <row r="1202" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1202" s="1"/>
+    </row>
+    <row r="1203" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1203" s="1"/>
+    </row>
     <row r="1204" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1204" s="1"/>
     </row>
     <row r="1205" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1205" s="1"/>
     </row>
-    <row r="1206" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1206" s="1"/>
-    </row>
-    <row r="1207" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1207" s="1"/>
-    </row>
     <row r="1208" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1208" s="1"/>
     </row>
@@ -6173,18 +6384,18 @@
     <row r="1211" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1211" s="1"/>
     </row>
+    <row r="1212" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1212" s="1"/>
+    </row>
+    <row r="1213" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1213" s="1"/>
+    </row>
     <row r="1214" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1214" s="1"/>
     </row>
     <row r="1215" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1215" s="1"/>
     </row>
-    <row r="1216" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1216" s="1"/>
-    </row>
-    <row r="1217" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1217" s="1"/>
-    </row>
     <row r="1218" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1218" s="1"/>
     </row>
@@ -6197,18 +6408,18 @@
     <row r="1221" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1221" s="1"/>
     </row>
+    <row r="1222" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1222" s="1"/>
+    </row>
+    <row r="1223" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1223" s="1"/>
+    </row>
     <row r="1224" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1224" s="1"/>
     </row>
     <row r="1225" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1225" s="1"/>
     </row>
-    <row r="1226" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1226" s="1"/>
-    </row>
-    <row r="1227" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1227" s="1"/>
-    </row>
     <row r="1228" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1228" s="1"/>
     </row>
@@ -6218,6 +6429,12 @@
     <row r="1230" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1230" s="1"/>
     </row>
+    <row r="1231" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1231" s="1"/>
+    </row>
+    <row r="1232" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1232" s="1"/>
+    </row>
     <row r="1233" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1233" s="1"/>
     </row>
@@ -6227,12 +6444,6 @@
     <row r="1235" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1235" s="1"/>
     </row>
-    <row r="1236" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1236" s="1"/>
-    </row>
-    <row r="1237" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1237" s="1"/>
-    </row>
     <row r="1238" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1238" s="1"/>
     </row>
@@ -6242,18 +6453,18 @@
     <row r="1240" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1240" s="1"/>
     </row>
+    <row r="1241" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1241" s="1"/>
+    </row>
+    <row r="1242" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1242" s="1"/>
+    </row>
     <row r="1243" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1243" s="1"/>
     </row>
     <row r="1244" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1244" s="1"/>
     </row>
-    <row r="1245" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1245" s="1"/>
-    </row>
-    <row r="1246" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1246" s="1"/>
-    </row>
     <row r="1247" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1247" s="1"/>
     </row>
@@ -6263,23 +6474,59 @@
     <row r="1249" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1249" s="1"/>
     </row>
+    <row r="1250" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1250" s="1"/>
+    </row>
     <row r="1251" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1251" s="1"/>
     </row>
+    <row r="1252" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1252" s="1"/>
+    </row>
+    <row r="1253" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1253" s="1"/>
+    </row>
+    <row r="1254" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1254" s="1"/>
+    </row>
+    <row r="1257" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1257" s="1"/>
+    </row>
+    <row r="1258" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1258" s="1"/>
+    </row>
+    <row r="1259" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1259" s="1"/>
+    </row>
+    <row r="1260" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1260" s="1"/>
+    </row>
+    <row r="1261" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1261" s="1"/>
+    </row>
+    <row r="1262" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1262" s="1"/>
+    </row>
+    <row r="1263" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1263" s="1"/>
+    </row>
+    <row r="1265" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1265" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L355 I355:J355 N355:P355">
+  <conditionalFormatting sqref="L369 I369:J369 N369:P369">
     <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M323">
+  <conditionalFormatting sqref="M337">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1233">
+  <conditionalFormatting sqref="M1247">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M655">
+  <conditionalFormatting sqref="M669">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M916">
+  <conditionalFormatting sqref="M930">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6289,9 +6536,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
-  <dimension ref="A1:D217"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -7756,7 +8003,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -8098,15 +8345,15 @@
         <v>243</v>
       </c>
       <c r="B126" s="7" t="str">
-        <f>"24"</f>
+        <f t="shared" ref="B126:D127" si="0">"24"</f>
         <v>24</v>
       </c>
       <c r="C126" s="7" t="str">
-        <f>"24"</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D126" s="7" t="str">
-        <f>"24"</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -8115,15 +8362,15 @@
         <v>243</v>
       </c>
       <c r="B127" s="7" t="str">
-        <f>"24"</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C127" s="7" t="str">
-        <f>"24"</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D127" s="7" t="str">
-        <f>"24"</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -8815,40 +9062,40 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D173" s="7"/>
     </row>
@@ -8984,72 +9231,72 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B185" s="5" t="str">
+        <f>"55"</f>
+        <v>55</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D185" s="5"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B186" s="5" t="str">
+      <c r="C186" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D186" s="5"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+      <c r="C187" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B187" s="5" t="str">
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D187" s="5"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B188" s="5" t="str">
-        <f>"55"</f>
-        <v>55</v>
-      </c>
       <c r="C188" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>301</v>
@@ -9061,382 +9308,484 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D204" s="7"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B205" s="5" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C205" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D205" s="5"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="B206" s="7" t="str">
+      <c r="C206" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D206" s="5"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" s="5" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B208" s="5" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C206" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="D206" s="7"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B207" s="5" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D207" s="5"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B208" s="5" t="str">
+      <c r="C209" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C208" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D208" s="5"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B209" s="5" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B210" s="5" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D210" s="5"/>
+      <c r="C210" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B211" s="7" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <f>"9"</f>
+        <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B212" s="7" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="D212" s="7"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B213" s="7" t="str">
-        <f>"9"</f>
-        <v>9</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="D213" s="7"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B214" s="7" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C212" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D214" s="7"/>
+      <c r="D212" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B216" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C222" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D217" s="7"/>
+      <c r="D222" s="5"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B223" s="7" t="str">
+        <f>"88888"</f>
+        <v>88888</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D223" s="7"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B224" s="7" t="str">
+        <f>"99999"</f>
+        <v>99999</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9536,7 +9885,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A20" sqref="A1:C1048576"/>
@@ -9544,7 +9893,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -9654,7 +10003,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>20</v>
@@ -9665,18 +10014,18 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="b">
+        <v>494</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>9</v>
@@ -9687,7 +10036,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>9</v>
@@ -9698,10 +10047,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C14" s="12" t="b">
         <v>0</v>
@@ -9709,7 +10058,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>36</v>
@@ -9720,10 +10069,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="b">
         <v>0</v>
@@ -9731,10 +10080,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="C17" s="12" t="b">
         <v>0</v>
@@ -9742,21 +10091,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="C18" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>322</v>
+      <c r="A19" s="13" t="s">
+        <v>321</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="C19" s="12" t="b">
         <v>0</v>
@@ -9764,7 +10113,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>20</v>
@@ -9775,10 +10124,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>324</v>
+        <v>495</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C21" s="12" t="b">
         <v>0</v>
@@ -9786,10 +10135,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>325</v>
+        <v>496</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="12" t="b">
         <v>0</v>
@@ -9797,10 +10146,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>326</v>
+        <v>493</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C23" s="12" t="b">
         <v>0</v>
@@ -9808,10 +10157,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C24" s="12" t="b">
         <v>0</v>
@@ -9819,10 +10168,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="12" t="b">
         <v>0</v>
@@ -9830,21 +10179,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>54</v>
+        <v>325</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C26" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>329</v>
+      <c r="A27" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C27" s="12" t="b">
         <v>0</v>
@@ -9852,10 +10201,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C28" s="12" t="b">
         <v>0</v>
@@ -9863,10 +10212,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C29" s="12" t="b">
         <v>0</v>
@@ -9874,21 +10223,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>332</v>
+        <v>54</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C30" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>333</v>
+      <c r="A31" s="13" t="s">
+        <v>329</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="12" t="b">
         <v>0</v>
@@ -9896,21 +10245,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="C32" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>335</v>
+      <c r="A33" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C33" s="12" t="b">
         <v>0</v>
@@ -9918,10 +10267,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" s="12" t="b">
         <v>0</v>
@@ -9929,10 +10278,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C35" s="12" t="b">
         <v>0</v>
@@ -9940,10 +10289,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>8</v>
+        <v>309</v>
       </c>
       <c r="C36" s="12" t="b">
         <v>0</v>
@@ -9951,7 +10300,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>21</v>
@@ -9961,11 +10310,11 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>338</v>
+      <c r="A38" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C38" s="12" t="b">
         <v>0</v>
@@ -9973,10 +10322,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C39" s="12" t="b">
         <v>0</v>
@@ -9984,7 +10333,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>8</v>
@@ -9994,30 +10343,30 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>341</v>
+      <c r="A41" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C41" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>342</v>
+      <c r="A42" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C42" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>343</v>
+      <c r="A43" s="13" t="s">
+        <v>521</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>20</v>
@@ -10028,10 +10377,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C44" s="12" t="b">
         <v>0</v>
@@ -10039,10 +10388,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C45" s="12" t="b">
         <v>0</v>
@@ -10050,10 +10399,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C46" s="12" t="b">
         <v>0</v>
@@ -10061,21 +10410,21 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>440</v>
+        <v>342</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>347</v>
+      <c r="A48" s="12" t="s">
+        <v>343</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="12" t="b">
         <v>0</v>
@@ -10083,43 +10432,43 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C49" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>348</v>
+      <c r="A50" s="12" t="s">
+        <v>345</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>349</v>
+      <c r="A51" s="12" t="s">
+        <v>346</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="C51" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>350</v>
+      <c r="A52" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C52" s="12" t="b">
         <v>0</v>
@@ -10127,7 +10476,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>21</v>
@@ -10137,22 +10486,22 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>352</v>
+      <c r="A54" s="12" t="s">
+        <v>397</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C54" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>353</v>
+      <c r="A55" s="12" t="s">
+        <v>410</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C55" s="12" t="b">
         <v>0</v>
@@ -10160,7 +10509,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>21</v>
@@ -10171,7 +10520,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>21</v>
@@ -10181,8 +10530,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>356</v>
+      <c r="A58" s="13" t="s">
+        <v>350</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>21</v>
@@ -10193,7 +10542,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>21</v>
@@ -10204,7 +10553,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>21</v>
@@ -10215,7 +10564,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>21</v>
@@ -10225,77 +10574,77 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="15" t="b">
-        <v>1</v>
+      <c r="A62" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="15" t="b">
-        <v>1</v>
+      <c r="A63" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="15" t="b">
-        <v>1</v>
+      <c r="A64" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="15" t="b">
-        <v>1</v>
+      <c r="A65" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="15" t="b">
-        <v>1</v>
+      <c r="A66" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="15" t="b">
-        <v>1</v>
+      <c r="A67" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C68" s="15" t="b">
         <v>1</v>
@@ -10303,10 +10652,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="C69" s="15" t="b">
         <v>1</v>
@@ -10314,10 +10663,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C70" s="15" t="b">
         <v>1</v>
@@ -10325,10 +10674,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C71" s="15" t="b">
         <v>1</v>
@@ -10336,10 +10685,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C72" s="15" t="b">
         <v>1</v>
@@ -10347,29 +10696,29 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="C73" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
-        <v>270</v>
+      <c r="A74" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C74" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>105</v>
+      <c r="A75" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>146</v>
@@ -10379,41 +10728,41 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
-        <v>274</v>
+      <c r="A76" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C76" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>106</v>
+      <c r="A77" s="15" t="s">
+        <v>293</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C77" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>278</v>
+      <c r="A78" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C78" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
-        <v>248</v>
+      <c r="A79" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>146</v>
@@ -10423,66 +10772,66 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
-        <v>242</v>
+      <c r="A80" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C80" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
-        <v>243</v>
+      <c r="A81" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C81" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
-        <v>244</v>
+      <c r="A82" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C82" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
-        <v>245</v>
+      <c r="A83" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C83" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
-        <v>246</v>
+      <c r="A84" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C84" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
-        <v>247</v>
+      <c r="A85" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C85" s="15" t="b">
         <v>1</v>
@@ -10490,7 +10839,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>36</v>
@@ -10501,10 +10850,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C87" s="15" t="b">
         <v>1</v>
@@ -10512,10 +10861,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C88" s="15" t="b">
         <v>1</v>
@@ -10523,10 +10872,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C89" s="15" t="b">
         <v>1</v>
@@ -10534,10 +10883,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C90" s="15" t="b">
         <v>1</v>
@@ -10545,10 +10894,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C91" s="15" t="b">
         <v>1</v>
@@ -10556,76 +10905,76 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C92" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
-        <v>93</v>
+      <c r="A93" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C93" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
-        <v>269</v>
+      <c r="A94" s="15" t="s">
+        <v>286</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C94" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="16" t="s">
-        <v>108</v>
+      <c r="A95" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C95" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="s">
-        <v>284</v>
+      <c r="A96" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C96" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="16" t="s">
-        <v>99</v>
+      <c r="A97" s="15" t="s">
+        <v>290</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C97" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
-        <v>272</v>
+      <c r="A98" s="15" t="s">
+        <v>287</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C98" s="15" t="b">
         <v>1</v>
@@ -10633,7 +10982,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>146</v>
@@ -10644,7 +10993,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>50</v>
@@ -10655,7 +11004,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B101" s="15" t="s">
         <v>146</v>
@@ -10666,7 +11015,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>50</v>
@@ -10677,7 +11026,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>146</v>
@@ -10688,7 +11037,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>50</v>
@@ -10699,7 +11048,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>146</v>
@@ -10710,7 +11059,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>50</v>
@@ -10721,7 +11070,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>146</v>
@@ -10732,7 +11081,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>50</v>
@@ -10743,7 +11092,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>146</v>
@@ -10754,7 +11103,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>50</v>
@@ -10765,7 +11114,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>146</v>
@@ -10776,7 +11125,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>50</v>
@@ -10787,7 +11136,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>146</v>
@@ -10798,7 +11147,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>50</v>
@@ -10809,7 +11158,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>146</v>
@@ -10820,7 +11169,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>50</v>
@@ -10831,7 +11180,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>146</v>
@@ -10842,7 +11191,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>50</v>
@@ -10852,253 +11201,253 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="B119" s="14" t="s">
+      <c r="A119" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C120" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C122" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="14" t="b">
+      <c r="C125" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B120" s="14" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="14" t="b">
+      <c r="C126" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B121" s="14" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C121" s="14" t="b">
+      <c r="C127" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="B122" s="18" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B129" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C122" s="18" t="b">
+      <c r="C129" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="B123" s="18" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B130" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C123" s="18" t="b">
+      <c r="C130" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="B124" s="19" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="B133" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="19" t="b">
+      <c r="C133" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="B125" s="19" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="B134" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="19" t="b">
+      <c r="C134" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" s="19" t="b">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="19" t="b">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" s="19" t="b">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" s="19" t="b">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C130" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="B135" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C135" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C137" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="B138" s="19" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B140" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C138" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C139" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C140" s="19" t="b">
+      <c r="C140" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="19" t="s">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C141" s="19" t="b">
         <v>0</v>
@@ -11106,7 +11455,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>8</v>
@@ -11116,102 +11465,311 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="B143" s="10" t="s">
+      <c r="A143" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C149" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C153" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C143" s="10" t="b">
+      <c r="C158" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B144" s="10" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C144" s="10" t="b">
+      <c r="C159" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B145" s="10" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C145" s="10" t="b">
+      <c r="C160" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B146" s="10" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="10" t="b">
+      <c r="C161" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B147" s="10" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B163" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="10" t="b">
+      <c r="C163" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B148" s="10" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="10" t="b">
+      <c r="C164" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="B149" s="10" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B165" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C149" s="10" t="b">
+      <c r="C165" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="B150" s="10" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="10" t="b">
+      <c r="C166" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="B151" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" s="22" t="b">
-        <v>0</v>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C167" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C168" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C169" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C170" s="10" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/triagem/forms/diagnosticQuick/diagnosticQuick.xlsx
+++ b/app/config/tables/triagem/forms/diagnosticQuick/diagnosticQuick.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D802FC-807F-4DBF-A4A0-B3EF718B2175}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E551D2-4E1C-4186-9542-807C6FB3812F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="527">
   <si>
     <t>setting_name</t>
   </si>
@@ -955,9 +955,6 @@
     <t>anos</t>
   </si>
   <si>
-    <t>select_one_inline</t>
-  </si>
-  <si>
     <t>bcgmaealt</t>
   </si>
   <si>
@@ -1610,6 +1607,12 @@
   </si>
   <si>
     <t>bloodNA</t>
+  </si>
+  <si>
+    <t>maeq</t>
+  </si>
+  <si>
+    <t>exactdob2</t>
   </si>
 </sst>
 </file>
@@ -2159,7 +2162,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2168,7 +2171,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2225,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,10 +2252,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -2295,11 +2298,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
-  <dimension ref="A1:Q1265"/>
+  <dimension ref="A1:Q1263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2364,7 @@
         <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>144</v>
@@ -2389,10 +2392,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -2421,16 +2424,16 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H6" t="s">
         <v>414</v>
       </c>
-      <c r="H6" t="s">
+      <c r="P6" t="s">
         <v>415</v>
-      </c>
-      <c r="P6" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2441,70 +2444,103 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H7" t="s">
         <v>417</v>
       </c>
-      <c r="H7" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="D8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" t="s">
+        <v>427</v>
+      </c>
+      <c r="H8" t="s">
+        <v>428</v>
+      </c>
+      <c r="P8" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10" t="s">
-        <v>334</v>
-      </c>
-      <c r="G10" t="s">
-        <v>428</v>
-      </c>
-      <c r="H10" t="s">
-        <v>429</v>
-      </c>
-      <c r="P10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="G11" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="H11" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="P11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>19</v>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>329</v>
+      </c>
+      <c r="G12" t="s">
+        <v>420</v>
+      </c>
+      <c r="H12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I12" t="s">
+        <v>422</v>
+      </c>
+      <c r="J12" t="s">
+        <v>423</v>
+      </c>
+      <c r="K12" t="s">
+        <v>424</v>
+      </c>
+      <c r="P12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>18</v>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>520</v>
+      </c>
+      <c r="G13" t="s">
+        <v>521</v>
+      </c>
+      <c r="H13" t="s">
+        <v>522</v>
+      </c>
+      <c r="P13" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2512,321 +2548,280 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="G14" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H14" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="P14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>330</v>
-      </c>
-      <c r="G15" t="s">
-        <v>421</v>
-      </c>
-      <c r="H15" t="s">
-        <v>422</v>
-      </c>
-      <c r="I15" t="s">
-        <v>423</v>
-      </c>
-      <c r="J15" t="s">
-        <v>424</v>
-      </c>
-      <c r="K15" t="s">
-        <v>425</v>
-      </c>
-      <c r="P15" t="s">
-        <v>416</v>
-      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>521</v>
-      </c>
-      <c r="G16" t="s">
-        <v>522</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" t="s">
         <v>523</v>
       </c>
-      <c r="P16" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>323</v>
-      </c>
-      <c r="G17" t="s">
-        <v>426</v>
-      </c>
-      <c r="H17" t="s">
-        <v>427</v>
-      </c>
-      <c r="P17" t="s">
-        <v>416</v>
-      </c>
     </row>
     <row r="18" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>253</v>
-      </c>
-      <c r="F20" t="s">
-        <v>253</v>
-      </c>
-      <c r="G20" t="s">
-        <v>524</v>
-      </c>
+    <row r="20" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>308</v>
+      </c>
+      <c r="F23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H23" t="s">
+        <v>459</v>
+      </c>
+      <c r="P23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G24" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>383</v>
-      </c>
-      <c r="G26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>19</v>
+    <row r="27" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>359</v>
+      </c>
+      <c r="F27" t="s">
+        <v>370</v>
+      </c>
+      <c r="G27" t="s">
+        <v>512</v>
+      </c>
+      <c r="H27" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>18</v>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>373</v>
+      </c>
+      <c r="F28" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" t="s">
-        <v>360</v>
-      </c>
-      <c r="F29" t="s">
-        <v>371</v>
-      </c>
-      <c r="G29" t="s">
-        <v>513</v>
-      </c>
-      <c r="H29" t="s">
-        <v>514</v>
+      <c r="B29" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F30" t="s">
-        <v>375</v>
+        <v>370</v>
+      </c>
+      <c r="L30">
+        <v>9999</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>376</v>
-      </c>
-      <c r="C31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>378</v>
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>359</v>
       </c>
       <c r="F32" t="s">
         <v>371</v>
       </c>
-      <c r="L32">
-        <v>9999</v>
+      <c r="G32" t="s">
+        <v>514</v>
+      </c>
+      <c r="H32" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" t="s">
-        <v>360</v>
-      </c>
-      <c r="F34" t="s">
-        <v>372</v>
-      </c>
-      <c r="G34" t="s">
-        <v>515</v>
-      </c>
-      <c r="H34" t="s">
-        <v>516</v>
+      <c r="B34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C34" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F35" t="s">
-        <v>380</v>
+        <v>371</v>
+      </c>
+      <c r="L35">
+        <v>9999</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>376</v>
-      </c>
-      <c r="C36" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>378</v>
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>359</v>
       </c>
       <c r="F37" t="s">
-        <v>372</v>
-      </c>
-      <c r="L37">
-        <v>9999</v>
+        <v>510</v>
+      </c>
+      <c r="G37" t="s">
+        <v>516</v>
+      </c>
+      <c r="H37" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>379</v>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" t="s">
+        <v>373</v>
+      </c>
+      <c r="F38" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" t="s">
-        <v>360</v>
-      </c>
-      <c r="F39" t="s">
-        <v>511</v>
-      </c>
-      <c r="G39" t="s">
-        <v>517</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="B39" t="s">
+        <v>375</v>
+      </c>
+      <c r="C39" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F40" t="s">
-        <v>512</v>
+        <v>510</v>
+      </c>
+      <c r="L40">
+        <v>9999</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>376</v>
-      </c>
-      <c r="C41" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
         <v>378</v>
       </c>
-      <c r="F42" t="s">
-        <v>511</v>
-      </c>
-      <c r="L42">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="43" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2838,9 +2833,9 @@
     <row r="53" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2860,9 +2855,14 @@
     <row r="75" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="77" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I168" s="3"/>
+    </row>
+    <row r="169" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I169" s="3"/>
+      <c r="M169" s="1"/>
+    </row>
     <row r="170" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I170" s="3"/>
     </row>
@@ -2872,6 +2872,7 @@
     </row>
     <row r="172" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I172" s="3"/>
+      <c r="M172" s="1"/>
     </row>
     <row r="173" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I173" s="3"/>
@@ -2910,7 +2911,6 @@
       <c r="M181" s="1"/>
     </row>
     <row r="182" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I182" s="3"/>
       <c r="M182" s="1"/>
     </row>
     <row r="183" spans="9:13" x14ac:dyDescent="0.25">
@@ -2918,6 +2918,7 @@
       <c r="M183" s="1"/>
     </row>
     <row r="184" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I184" s="3"/>
       <c r="M184" s="1"/>
     </row>
     <row r="185" spans="9:13" x14ac:dyDescent="0.25">
@@ -2930,11 +2931,9 @@
     </row>
     <row r="187" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I187" s="3"/>
-      <c r="M187" s="1"/>
     </row>
     <row r="188" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I188" s="3"/>
-      <c r="M188" s="1"/>
     </row>
     <row r="189" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I189" s="3"/>
@@ -2951,25 +2950,36 @@
     <row r="193" spans="5:16" x14ac:dyDescent="0.25">
       <c r="I193" s="3"/>
     </row>
-    <row r="194" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="I194" s="3"/>
-    </row>
-    <row r="195" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="I195" s="3"/>
-    </row>
+    <row r="195" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="197" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M199" s="1"/>
+    </row>
     <row r="200" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F200" s="1"/>
-    </row>
-    <row r="201" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M200" s="1"/>
+    </row>
+    <row r="201" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
       <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
     </row>
     <row r="202" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M202" s="1"/>
     </row>
     <row r="203" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -2983,10 +2993,20 @@
       <c r="P203" s="1"/>
     </row>
     <row r="204" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
       <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
     </row>
     <row r="205" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -3000,7 +3020,6 @@
       <c r="P205" s="1"/>
     </row>
     <row r="206" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -3021,7 +3040,6 @@
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
-      <c r="M207" s="1"/>
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
@@ -3034,7 +3052,6 @@
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
@@ -3047,6 +3064,7 @@
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
@@ -3059,6 +3077,7 @@
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
@@ -3090,6 +3109,7 @@
       <c r="P212" s="1"/>
     </row>
     <row r="213" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -3103,6 +3123,7 @@
       <c r="P213" s="1"/>
     </row>
     <row r="214" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -3116,7 +3137,6 @@
       <c r="P214" s="1"/>
     </row>
     <row r="215" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -3130,7 +3150,6 @@
       <c r="P215" s="1"/>
     </row>
     <row r="216" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -3151,7 +3170,6 @@
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
@@ -3170,29 +3188,10 @@
       <c r="P218" s="1"/>
     </row>
     <row r="219" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
+      <c r="M219" s="1"/>
     </row>
     <row r="220" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
       <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
     </row>
     <row r="221" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M221" s="1"/>
@@ -3209,20 +3208,42 @@
     <row r="225" spans="6:17" x14ac:dyDescent="0.25">
       <c r="M225" s="1"/>
     </row>
-    <row r="226" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M226" s="1"/>
-    </row>
-    <row r="227" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M227" s="1"/>
+    <row r="228" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M228" s="1"/>
+    </row>
+    <row r="229" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M229" s="1"/>
     </row>
     <row r="230" spans="6:17" x14ac:dyDescent="0.25">
       <c r="M230" s="1"/>
     </row>
     <row r="231" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
       <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
     </row>
     <row r="232" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
       <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
     </row>
     <row r="233" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F233" s="1"/>
@@ -3274,7 +3295,6 @@
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
-      <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
@@ -3288,7 +3308,6 @@
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
@@ -3302,43 +3321,43 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
     </row>
     <row r="239" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-      <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
-      <c r="K239" s="1"/>
-      <c r="L239" s="1"/>
-      <c r="N239" s="1"/>
-      <c r="O239" s="1"/>
-      <c r="P239" s="1"/>
-      <c r="Q239" s="1"/>
+      <c r="M239" s="1"/>
     </row>
     <row r="240" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
-      <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
-      <c r="K240" s="1"/>
-      <c r="L240" s="1"/>
       <c r="M240" s="1"/>
-      <c r="N240" s="1"/>
-      <c r="O240" s="1"/>
-      <c r="P240" s="1"/>
-      <c r="Q240" s="1"/>
     </row>
     <row r="241" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
       <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
     </row>
     <row r="242" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
       <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
     </row>
     <row r="243" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F243" s="1"/>
@@ -3386,20 +3405,18 @@
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
-      <c r="M246" s="1"/>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
-      <c r="Q246" s="1"/>
     </row>
     <row r="247" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
-      <c r="M247" s="1"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
@@ -3409,25 +3426,18 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
+      <c r="Q248" s="1"/>
     </row>
     <row r="249" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
-      <c r="L249" s="1"/>
-      <c r="N249" s="1"/>
-      <c r="O249" s="1"/>
-      <c r="P249" s="1"/>
-      <c r="Q249" s="1"/>
+      <c r="M249" s="1"/>
     </row>
     <row r="250" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F250" s="1"/>
@@ -3444,7 +3454,18 @@
       <c r="Q250" s="1"/>
     </row>
     <row r="251" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
       <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="1"/>
     </row>
     <row r="252" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F252" s="1"/>
@@ -3496,7 +3517,6 @@
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
-      <c r="M255" s="1"/>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
@@ -3510,7 +3530,6 @@
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
-      <c r="M256" s="1"/>
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
@@ -3524,6 +3543,7 @@
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
@@ -3531,37 +3551,36 @@
     </row>
     <row r="258" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
-      <c r="H258" s="1"/>
-      <c r="I258" s="1"/>
-      <c r="J258" s="1"/>
-      <c r="K258" s="1"/>
-      <c r="L258" s="1"/>
-      <c r="N258" s="1"/>
-      <c r="O258" s="1"/>
-      <c r="P258" s="1"/>
-      <c r="Q258" s="1"/>
+      <c r="M258" s="1"/>
     </row>
     <row r="259" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F259" s="1"/>
-      <c r="G259" s="1"/>
-      <c r="H259" s="1"/>
-      <c r="I259" s="1"/>
-      <c r="J259" s="1"/>
-      <c r="K259" s="1"/>
-      <c r="L259" s="1"/>
       <c r="M259" s="1"/>
-      <c r="N259" s="1"/>
-      <c r="O259" s="1"/>
-      <c r="P259" s="1"/>
-      <c r="Q259" s="1"/>
     </row>
     <row r="260" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
       <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+      <c r="Q260" s="1"/>
     </row>
     <row r="261" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
       <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+      <c r="Q261" s="1"/>
     </row>
     <row r="262" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F262" s="1"/>
@@ -3609,7 +3628,6 @@
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
-      <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
@@ -3619,10 +3637,10 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
-      <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
@@ -3632,46 +3650,47 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
+      <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
-      <c r="Q267" s="1"/>
     </row>
     <row r="268" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
-      <c r="I268" s="1"/>
-      <c r="J268" s="1"/>
-      <c r="K268" s="1"/>
-      <c r="L268" s="1"/>
-      <c r="N268" s="1"/>
-      <c r="O268" s="1"/>
-      <c r="P268" s="1"/>
-      <c r="Q268" s="1"/>
+      <c r="M268" s="1"/>
     </row>
     <row r="269" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-      <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
-      <c r="K269" s="1"/>
-      <c r="L269" s="1"/>
       <c r="M269" s="1"/>
-      <c r="N269" s="1"/>
-      <c r="O269" s="1"/>
-      <c r="P269" s="1"/>
     </row>
     <row r="270" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
       <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+      <c r="P270" s="1"/>
+      <c r="Q270" s="1"/>
     </row>
     <row r="271" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
       <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="P271" s="1"/>
+      <c r="Q271" s="1"/>
     </row>
     <row r="272" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F272" s="1"/>
@@ -3719,7 +3738,6 @@
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
-      <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
@@ -3729,10 +3747,10 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
-      <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
@@ -3742,46 +3760,47 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
+      <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
-      <c r="Q277" s="1"/>
     </row>
     <row r="278" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
-      <c r="H278" s="1"/>
-      <c r="I278" s="1"/>
-      <c r="J278" s="1"/>
-      <c r="K278" s="1"/>
-      <c r="L278" s="1"/>
-      <c r="N278" s="1"/>
-      <c r="O278" s="1"/>
-      <c r="P278" s="1"/>
-      <c r="Q278" s="1"/>
+      <c r="M278" s="1"/>
     </row>
     <row r="279" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
-      <c r="H279" s="1"/>
-      <c r="I279" s="1"/>
-      <c r="J279" s="1"/>
-      <c r="K279" s="1"/>
-      <c r="L279" s="1"/>
       <c r="M279" s="1"/>
-      <c r="N279" s="1"/>
-      <c r="O279" s="1"/>
-      <c r="P279" s="1"/>
     </row>
     <row r="280" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="J280" s="1"/>
+      <c r="K280" s="1"/>
+      <c r="L280" s="1"/>
       <c r="M280" s="1"/>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+      <c r="P280" s="1"/>
+      <c r="Q280" s="1"/>
     </row>
     <row r="281" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
       <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+      <c r="P281" s="1"/>
+      <c r="Q281" s="1"/>
     </row>
     <row r="282" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F282" s="1"/>
@@ -3829,7 +3848,6 @@
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
-      <c r="M285" s="1"/>
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
@@ -3839,45 +3857,48 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
-      <c r="M286" s="1"/>
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
     </row>
     <row r="287" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
-      <c r="H287" s="1"/>
-      <c r="J287" s="1"/>
-      <c r="K287" s="1"/>
-      <c r="L287" s="1"/>
-      <c r="N287" s="1"/>
-      <c r="O287" s="1"/>
-      <c r="P287" s="1"/>
-      <c r="Q287" s="1"/>
+      <c r="M287" s="1"/>
     </row>
     <row r="288" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F288" s="1"/>
-      <c r="G288" s="1"/>
-      <c r="H288" s="1"/>
-      <c r="I288" s="1"/>
-      <c r="J288" s="1"/>
-      <c r="K288" s="1"/>
-      <c r="L288" s="1"/>
-      <c r="N288" s="1"/>
-      <c r="O288" s="1"/>
-      <c r="P288" s="1"/>
-      <c r="Q288" s="1"/>
+      <c r="M288" s="1"/>
     </row>
     <row r="289" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+      <c r="J289" s="1"/>
+      <c r="K289" s="1"/>
+      <c r="L289" s="1"/>
       <c r="M289" s="1"/>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+      <c r="P289" s="1"/>
+      <c r="Q289" s="1"/>
     </row>
     <row r="290" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
       <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+      <c r="P290" s="1"/>
+      <c r="Q290" s="1"/>
     </row>
     <row r="291" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F291" s="1"/>
@@ -3929,7 +3950,6 @@
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
-      <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
@@ -3943,7 +3963,6 @@
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
-      <c r="M295" s="1"/>
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
@@ -3957,6 +3976,7 @@
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
+      <c r="M296" s="1"/>
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
@@ -3964,37 +3984,36 @@
     </row>
     <row r="297" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
-      <c r="H297" s="1"/>
-      <c r="I297" s="1"/>
-      <c r="J297" s="1"/>
-      <c r="K297" s="1"/>
-      <c r="L297" s="1"/>
-      <c r="N297" s="1"/>
-      <c r="O297" s="1"/>
-      <c r="P297" s="1"/>
-      <c r="Q297" s="1"/>
+      <c r="M297" s="1"/>
     </row>
     <row r="298" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
-      <c r="H298" s="1"/>
-      <c r="I298" s="1"/>
-      <c r="J298" s="1"/>
-      <c r="K298" s="1"/>
-      <c r="L298" s="1"/>
       <c r="M298" s="1"/>
-      <c r="N298" s="1"/>
-      <c r="O298" s="1"/>
-      <c r="P298" s="1"/>
-      <c r="Q298" s="1"/>
     </row>
     <row r="299" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1"/>
+      <c r="L299" s="1"/>
       <c r="M299" s="1"/>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+      <c r="P299" s="1"/>
+      <c r="Q299" s="1"/>
     </row>
     <row r="300" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="1"/>
       <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+      <c r="P300" s="1"/>
+      <c r="Q300" s="1"/>
     </row>
     <row r="301" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F301" s="1"/>
@@ -4042,7 +4061,6 @@
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
-      <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
@@ -4052,10 +4070,10 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
+      <c r="I305" s="1"/>
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
-      <c r="M305" s="1"/>
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
@@ -4065,46 +4083,47 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
+      <c r="M306" s="1"/>
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
-      <c r="Q306" s="1"/>
     </row>
     <row r="307" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F307" s="1"/>
-      <c r="G307" s="1"/>
-      <c r="H307" s="1"/>
-      <c r="I307" s="1"/>
-      <c r="J307" s="1"/>
-      <c r="K307" s="1"/>
-      <c r="L307" s="1"/>
-      <c r="N307" s="1"/>
-      <c r="O307" s="1"/>
-      <c r="P307" s="1"/>
-      <c r="Q307" s="1"/>
+      <c r="M307" s="1"/>
     </row>
     <row r="308" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F308" s="1"/>
-      <c r="G308" s="1"/>
-      <c r="H308" s="1"/>
-      <c r="I308" s="1"/>
-      <c r="J308" s="1"/>
-      <c r="K308" s="1"/>
-      <c r="L308" s="1"/>
       <c r="M308" s="1"/>
-      <c r="N308" s="1"/>
-      <c r="O308" s="1"/>
-      <c r="P308" s="1"/>
     </row>
     <row r="309" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="J309" s="1"/>
+      <c r="K309" s="1"/>
+      <c r="L309" s="1"/>
       <c r="M309" s="1"/>
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+      <c r="P309" s="1"/>
+      <c r="Q309" s="1"/>
     </row>
     <row r="310" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1"/>
+      <c r="J310" s="1"/>
+      <c r="K310" s="1"/>
+      <c r="L310" s="1"/>
       <c r="M310" s="1"/>
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+      <c r="P310" s="1"/>
+      <c r="Q310" s="1"/>
     </row>
     <row r="311" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F311" s="1"/>
@@ -4152,7 +4171,6 @@
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
-      <c r="M314" s="1"/>
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
@@ -4162,10 +4180,10 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
-      <c r="M315" s="1"/>
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
@@ -4175,46 +4193,47 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
+      <c r="I316" s="1"/>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
+      <c r="M316" s="1"/>
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
-      <c r="Q316" s="1"/>
     </row>
     <row r="317" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F317" s="1"/>
-      <c r="G317" s="1"/>
-      <c r="H317" s="1"/>
-      <c r="I317" s="1"/>
-      <c r="J317" s="1"/>
-      <c r="K317" s="1"/>
-      <c r="L317" s="1"/>
-      <c r="N317" s="1"/>
-      <c r="O317" s="1"/>
-      <c r="P317" s="1"/>
-      <c r="Q317" s="1"/>
+      <c r="M317" s="1"/>
     </row>
     <row r="318" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F318" s="1"/>
-      <c r="G318" s="1"/>
-      <c r="H318" s="1"/>
-      <c r="I318" s="1"/>
-      <c r="J318" s="1"/>
-      <c r="K318" s="1"/>
-      <c r="L318" s="1"/>
       <c r="M318" s="1"/>
-      <c r="N318" s="1"/>
-      <c r="O318" s="1"/>
-      <c r="P318" s="1"/>
     </row>
     <row r="319" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="H319" s="1"/>
+      <c r="J319" s="1"/>
+      <c r="K319" s="1"/>
+      <c r="L319" s="1"/>
       <c r="M319" s="1"/>
+      <c r="N319" s="1"/>
+      <c r="O319" s="1"/>
+      <c r="P319" s="1"/>
+      <c r="Q319" s="1"/>
     </row>
     <row r="320" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="1"/>
+      <c r="J320" s="1"/>
+      <c r="K320" s="1"/>
+      <c r="L320" s="1"/>
       <c r="M320" s="1"/>
+      <c r="N320" s="1"/>
+      <c r="O320" s="1"/>
+      <c r="P320" s="1"/>
+      <c r="Q320" s="1"/>
     </row>
     <row r="321" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F321" s="1"/>
@@ -4262,7 +4281,6 @@
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
-      <c r="M324" s="1"/>
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
@@ -4272,45 +4290,48 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
+      <c r="I325" s="1"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
-      <c r="M325" s="1"/>
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
     </row>
     <row r="326" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
-      <c r="H326" s="1"/>
-      <c r="J326" s="1"/>
-      <c r="K326" s="1"/>
-      <c r="L326" s="1"/>
-      <c r="N326" s="1"/>
-      <c r="O326" s="1"/>
-      <c r="P326" s="1"/>
-      <c r="Q326" s="1"/>
+      <c r="M326" s="1"/>
     </row>
     <row r="327" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F327" s="1"/>
-      <c r="G327" s="1"/>
-      <c r="H327" s="1"/>
-      <c r="I327" s="1"/>
-      <c r="J327" s="1"/>
-      <c r="K327" s="1"/>
-      <c r="L327" s="1"/>
-      <c r="N327" s="1"/>
-      <c r="O327" s="1"/>
-      <c r="P327" s="1"/>
-      <c r="Q327" s="1"/>
+      <c r="M327" s="1"/>
     </row>
     <row r="328" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1"/>
+      <c r="I328" s="1"/>
+      <c r="J328" s="1"/>
+      <c r="K328" s="1"/>
+      <c r="L328" s="1"/>
       <c r="M328" s="1"/>
+      <c r="N328" s="1"/>
+      <c r="O328" s="1"/>
+      <c r="P328" s="1"/>
+      <c r="Q328" s="1"/>
     </row>
     <row r="329" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1"/>
+      <c r="I329" s="1"/>
+      <c r="J329" s="1"/>
+      <c r="K329" s="1"/>
+      <c r="L329" s="1"/>
       <c r="M329" s="1"/>
+      <c r="N329" s="1"/>
+      <c r="O329" s="1"/>
+      <c r="P329" s="1"/>
+      <c r="Q329" s="1"/>
     </row>
     <row r="330" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F330" s="1"/>
@@ -4362,7 +4383,6 @@
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
-      <c r="M333" s="1"/>
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
@@ -4376,7 +4396,6 @@
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
-      <c r="M334" s="1"/>
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
@@ -4390,6 +4409,7 @@
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
+      <c r="M335" s="1"/>
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
@@ -4397,37 +4417,36 @@
     </row>
     <row r="336" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F336" s="1"/>
-      <c r="G336" s="1"/>
-      <c r="H336" s="1"/>
-      <c r="I336" s="1"/>
-      <c r="J336" s="1"/>
-      <c r="K336" s="1"/>
-      <c r="L336" s="1"/>
-      <c r="N336" s="1"/>
-      <c r="O336" s="1"/>
-      <c r="P336" s="1"/>
-      <c r="Q336" s="1"/>
+      <c r="M336" s="1"/>
     </row>
     <row r="337" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
-      <c r="H337" s="1"/>
-      <c r="I337" s="1"/>
-      <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
-      <c r="L337" s="1"/>
       <c r="M337" s="1"/>
-      <c r="N337" s="1"/>
-      <c r="O337" s="1"/>
-      <c r="P337" s="1"/>
-      <c r="Q337" s="1"/>
     </row>
     <row r="338" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+      <c r="H338" s="1"/>
+      <c r="J338" s="1"/>
+      <c r="K338" s="1"/>
+      <c r="L338" s="1"/>
       <c r="M338" s="1"/>
+      <c r="N338" s="1"/>
+      <c r="O338" s="1"/>
+      <c r="P338" s="1"/>
+      <c r="Q338" s="1"/>
     </row>
     <row r="339" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="H339" s="1"/>
+      <c r="J339" s="1"/>
+      <c r="K339" s="1"/>
+      <c r="L339" s="1"/>
       <c r="M339" s="1"/>
+      <c r="N339" s="1"/>
+      <c r="O339" s="1"/>
+      <c r="P339" s="1"/>
+      <c r="Q339" s="1"/>
     </row>
     <row r="340" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F340" s="1"/>
@@ -4475,7 +4494,6 @@
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
-      <c r="M343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
@@ -4485,10 +4503,10 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
+      <c r="I344" s="1"/>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
-      <c r="M344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
@@ -4498,46 +4516,47 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
+      <c r="I345" s="1"/>
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
+      <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
-      <c r="Q345" s="1"/>
     </row>
     <row r="346" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F346" s="1"/>
-      <c r="G346" s="1"/>
-      <c r="H346" s="1"/>
-      <c r="I346" s="1"/>
-      <c r="J346" s="1"/>
-      <c r="K346" s="1"/>
-      <c r="L346" s="1"/>
-      <c r="N346" s="1"/>
-      <c r="O346" s="1"/>
-      <c r="P346" s="1"/>
-      <c r="Q346" s="1"/>
+      <c r="M346" s="1"/>
     </row>
     <row r="347" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F347" s="1"/>
-      <c r="G347" s="1"/>
-      <c r="H347" s="1"/>
-      <c r="I347" s="1"/>
-      <c r="J347" s="1"/>
-      <c r="K347" s="1"/>
-      <c r="L347" s="1"/>
       <c r="M347" s="1"/>
-      <c r="N347" s="1"/>
-      <c r="O347" s="1"/>
-      <c r="P347" s="1"/>
     </row>
     <row r="348" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="1"/>
+      <c r="J348" s="1"/>
+      <c r="K348" s="1"/>
+      <c r="L348" s="1"/>
       <c r="M348" s="1"/>
+      <c r="N348" s="1"/>
+      <c r="O348" s="1"/>
+      <c r="P348" s="1"/>
+      <c r="Q348" s="1"/>
     </row>
     <row r="349" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="1"/>
+      <c r="J349" s="1"/>
+      <c r="K349" s="1"/>
+      <c r="L349" s="1"/>
       <c r="M349" s="1"/>
+      <c r="N349" s="1"/>
+      <c r="O349" s="1"/>
+      <c r="P349" s="1"/>
+      <c r="Q349" s="1"/>
     </row>
     <row r="350" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F350" s="1"/>
@@ -4572,7 +4591,6 @@
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
-      <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
@@ -4595,6 +4613,7 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
@@ -4607,42 +4626,40 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
+      <c r="I355" s="1"/>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
-      <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
-      <c r="Q355" s="1"/>
     </row>
     <row r="356" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F356" s="1"/>
-      <c r="G356" s="1"/>
-      <c r="H356" s="1"/>
-      <c r="I356" s="1"/>
-      <c r="J356" s="1"/>
-      <c r="K356" s="1"/>
-      <c r="L356" s="1"/>
-      <c r="N356" s="1"/>
-      <c r="O356" s="1"/>
-      <c r="P356" s="1"/>
-      <c r="Q356" s="1"/>
-    </row>
-    <row r="357" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F357" s="1"/>
-      <c r="G357" s="1"/>
-      <c r="H357" s="1"/>
-      <c r="I357" s="1"/>
-      <c r="J357" s="1"/>
-      <c r="K357" s="1"/>
-      <c r="L357" s="1"/>
-      <c r="N357" s="1"/>
-      <c r="O357" s="1"/>
-      <c r="P357" s="1"/>
     </row>
     <row r="358" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="H358" s="1"/>
+      <c r="J358" s="1"/>
+      <c r="K358" s="1"/>
+      <c r="L358" s="1"/>
+      <c r="N358" s="1"/>
+      <c r="O358" s="1"/>
+      <c r="P358" s="1"/>
+      <c r="Q358" s="1"/>
+    </row>
+    <row r="359" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+      <c r="H359" s="1"/>
+      <c r="J359" s="1"/>
+      <c r="K359" s="1"/>
+      <c r="L359" s="1"/>
+      <c r="N359" s="1"/>
+      <c r="O359" s="1"/>
+      <c r="P359" s="1"/>
+      <c r="Q359" s="1"/>
     </row>
     <row r="360" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F360" s="1"/>
@@ -4696,6 +4713,7 @@
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
+      <c r="I364" s="1"/>
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
@@ -4704,30 +4722,31 @@
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
     </row>
-    <row r="365" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F365" s="1"/>
-      <c r="G365" s="1"/>
-      <c r="H365" s="1"/>
-      <c r="J365" s="1"/>
-      <c r="K365" s="1"/>
-      <c r="L365" s="1"/>
-      <c r="N365" s="1"/>
-      <c r="O365" s="1"/>
-      <c r="P365" s="1"/>
-      <c r="Q365" s="1"/>
-    </row>
-    <row r="366" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F366" s="1"/>
-      <c r="G366" s="1"/>
-      <c r="H366" s="1"/>
-      <c r="I366" s="1"/>
-      <c r="J366" s="1"/>
-      <c r="K366" s="1"/>
-      <c r="L366" s="1"/>
-      <c r="N366" s="1"/>
-      <c r="O366" s="1"/>
-      <c r="P366" s="1"/>
-      <c r="Q366" s="1"/>
+    <row r="367" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F367" s="1"/>
+      <c r="G367" s="1"/>
+      <c r="H367" s="1"/>
+      <c r="I367" s="1"/>
+      <c r="J367" s="1"/>
+      <c r="K367" s="1"/>
+      <c r="L367" s="1"/>
+      <c r="N367" s="1"/>
+      <c r="O367" s="1"/>
+      <c r="P367" s="1"/>
+      <c r="Q367" s="1"/>
+    </row>
+    <row r="368" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F368" s="1"/>
+      <c r="G368" s="1"/>
+      <c r="H368" s="1"/>
+      <c r="I368" s="1"/>
+      <c r="J368" s="1"/>
+      <c r="K368" s="1"/>
+      <c r="L368" s="1"/>
+      <c r="N368" s="1"/>
+      <c r="O368" s="1"/>
+      <c r="P368" s="1"/>
+      <c r="Q368" s="1"/>
     </row>
     <row r="369" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F369" s="1"/>
@@ -4805,35 +4824,33 @@
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
-      <c r="Q374" s="1"/>
     </row>
     <row r="375" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F375" s="1"/>
-      <c r="G375" s="1"/>
-      <c r="H375" s="1"/>
-      <c r="I375" s="1"/>
-      <c r="J375" s="1"/>
-      <c r="K375" s="1"/>
-      <c r="L375" s="1"/>
-      <c r="N375" s="1"/>
-      <c r="O375" s="1"/>
-      <c r="P375" s="1"/>
-      <c r="Q375" s="1"/>
-    </row>
-    <row r="376" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F376" s="1"/>
-      <c r="G376" s="1"/>
-      <c r="H376" s="1"/>
-      <c r="I376" s="1"/>
-      <c r="J376" s="1"/>
-      <c r="K376" s="1"/>
-      <c r="L376" s="1"/>
-      <c r="N376" s="1"/>
-      <c r="O376" s="1"/>
-      <c r="P376" s="1"/>
     </row>
     <row r="377" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F377" s="1"/>
+      <c r="G377" s="1"/>
+      <c r="H377" s="1"/>
+      <c r="J377" s="1"/>
+      <c r="K377" s="1"/>
+      <c r="L377" s="1"/>
+      <c r="N377" s="1"/>
+      <c r="O377" s="1"/>
+      <c r="P377" s="1"/>
+      <c r="Q377" s="1"/>
+    </row>
+    <row r="378" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F378" s="1"/>
+      <c r="G378" s="1"/>
+      <c r="H378" s="1"/>
+      <c r="J378" s="1"/>
+      <c r="K378" s="1"/>
+      <c r="L378" s="1"/>
+      <c r="N378" s="1"/>
+      <c r="O378" s="1"/>
+      <c r="P378" s="1"/>
+      <c r="Q378" s="1"/>
     </row>
     <row r="379" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F379" s="1"/>
@@ -4887,6 +4904,7 @@
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
+      <c r="I383" s="1"/>
       <c r="J383" s="1"/>
       <c r="K383" s="1"/>
       <c r="L383" s="1"/>
@@ -4896,18 +4914,9 @@
       <c r="Q383" s="1"/>
     </row>
     <row r="384" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F384" s="1"/>
-      <c r="G384" s="1"/>
-      <c r="H384" s="1"/>
-      <c r="J384" s="1"/>
-      <c r="K384" s="1"/>
-      <c r="L384" s="1"/>
-      <c r="N384" s="1"/>
-      <c r="O384" s="1"/>
-      <c r="P384" s="1"/>
-      <c r="Q384" s="1"/>
-    </row>
-    <row r="385" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M384" s="1"/>
+    </row>
+    <row r="385" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
@@ -4915,54 +4924,65 @@
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
       <c r="L385" s="1"/>
+      <c r="M385" s="1"/>
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
       <c r="P385" s="1"/>
-      <c r="Q385" s="1"/>
-    </row>
-    <row r="386" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="6:16" x14ac:dyDescent="0.25">
       <c r="M386" s="1"/>
     </row>
-    <row r="387" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F387" s="1"/>
-      <c r="G387" s="1"/>
-      <c r="H387" s="1"/>
-      <c r="I387" s="1"/>
-      <c r="J387" s="1"/>
-      <c r="K387" s="1"/>
-      <c r="L387" s="1"/>
-      <c r="M387" s="1"/>
-      <c r="N387" s="1"/>
-      <c r="O387" s="1"/>
-      <c r="P387" s="1"/>
-    </row>
-    <row r="388" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M388" s="1"/>
-    </row>
-    <row r="391" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F391" s="1"/>
-    </row>
-    <row r="399" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F399" s="1"/>
-    </row>
-    <row r="406" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F406" s="1"/>
-    </row>
-    <row r="409" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F409" s="1"/>
-    </row>
-    <row r="410" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F410" s="1"/>
-    </row>
-    <row r="413" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F389" s="1"/>
+    </row>
+    <row r="397" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F397" s="1"/>
+    </row>
+    <row r="404" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F404" s="1"/>
+    </row>
+    <row r="407" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F407" s="1"/>
+    </row>
+    <row r="408" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F408" s="1"/>
+    </row>
+    <row r="411" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F411" s="1"/>
+    </row>
+    <row r="412" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F412" s="1"/>
+      <c r="G412" s="1"/>
+    </row>
+    <row r="413" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F413" s="1"/>
     </row>
-    <row r="414" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F414" s="1"/>
-      <c r="G414" s="1"/>
-    </row>
-    <row r="415" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F415" s="1"/>
+    <row r="416" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F416" s="1"/>
+      <c r="G416" s="1"/>
+      <c r="H416" s="1"/>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+      <c r="K416" s="1"/>
+      <c r="L416" s="1"/>
+      <c r="M416" t="b">
+        <v>1</v>
+      </c>
+      <c r="N416" s="1"/>
+      <c r="O416" s="1"/>
+      <c r="P416" s="1"/>
+    </row>
+    <row r="417" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F417" s="1"/>
+      <c r="G417" s="1"/>
+      <c r="H417" s="1"/>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
+      <c r="K417" s="1"/>
+      <c r="L417" s="1"/>
+      <c r="N417" s="1"/>
+      <c r="O417" s="1"/>
+      <c r="P417" s="1"/>
     </row>
     <row r="418" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F418" s="1"/>
@@ -4972,50 +4992,36 @@
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
       <c r="L418" s="1"/>
-      <c r="M418" t="b">
-        <v>1</v>
-      </c>
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
     </row>
-    <row r="419" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F419" s="1"/>
-      <c r="G419" s="1"/>
-      <c r="H419" s="1"/>
-      <c r="I419" s="1"/>
-      <c r="J419" s="1"/>
-      <c r="K419" s="1"/>
-      <c r="L419" s="1"/>
-      <c r="N419" s="1"/>
-      <c r="O419" s="1"/>
-      <c r="P419" s="1"/>
-    </row>
-    <row r="420" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F420" s="1"/>
-      <c r="G420" s="1"/>
-      <c r="H420" s="1"/>
-      <c r="I420" s="1"/>
-      <c r="J420" s="1"/>
-      <c r="K420" s="1"/>
-      <c r="L420" s="1"/>
-      <c r="N420" s="1"/>
-      <c r="O420" s="1"/>
-      <c r="P420" s="1"/>
-    </row>
-    <row r="466" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F466" s="1"/>
-      <c r="G466" s="1"/>
-      <c r="H466" s="1"/>
-      <c r="I466" s="1"/>
-      <c r="J466" s="1"/>
-      <c r="K466" s="1"/>
-      <c r="L466" s="1"/>
-      <c r="N466" s="1"/>
-      <c r="O466" s="1"/>
-      <c r="P466" s="1"/>
+    <row r="464" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+      <c r="H464" s="1"/>
+      <c r="I464" s="1"/>
+      <c r="J464" s="1"/>
+      <c r="K464" s="1"/>
+      <c r="L464" s="1"/>
+      <c r="N464" s="1"/>
+      <c r="O464" s="1"/>
+      <c r="P464" s="1"/>
+    </row>
+    <row r="465" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+      <c r="H465" s="1"/>
+      <c r="I465" s="1"/>
+      <c r="J465" s="1"/>
+      <c r="K465" s="1"/>
+      <c r="L465" s="1"/>
+      <c r="N465" s="1"/>
+      <c r="O465" s="1"/>
+      <c r="P465" s="1"/>
     </row>
     <row r="467" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
@@ -5027,8 +5033,20 @@
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
     </row>
+    <row r="468" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+      <c r="H468" s="1"/>
+      <c r="I468" s="1"/>
+      <c r="J468" s="1"/>
+      <c r="K468" s="1"/>
+      <c r="L468" s="1"/>
+      <c r="N468" s="1"/>
+      <c r="O468" s="1"/>
+      <c r="P468" s="1"/>
+    </row>
     <row r="469" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E469" s="1"/>
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
@@ -5041,7 +5059,6 @@
       <c r="P469" s="1"/>
     </row>
     <row r="470" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E470" s="1"/>
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
@@ -5114,6 +5131,7 @@
       <c r="P475" s="1"/>
     </row>
     <row r="476" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
@@ -5126,6 +5144,7 @@
       <c r="P476" s="1"/>
     </row>
     <row r="477" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
@@ -5138,7 +5157,6 @@
       <c r="P477" s="1"/>
     </row>
     <row r="478" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E478" s="1"/>
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
@@ -5151,7 +5169,6 @@
       <c r="P478" s="1"/>
     </row>
     <row r="479" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E479" s="1"/>
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
@@ -5187,33 +5204,15 @@
       <c r="O481" s="1"/>
       <c r="P481" s="1"/>
     </row>
-    <row r="482" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F482" s="1"/>
-      <c r="G482" s="1"/>
-      <c r="H482" s="1"/>
-      <c r="I482" s="1"/>
-      <c r="J482" s="1"/>
-      <c r="K482" s="1"/>
-      <c r="L482" s="1"/>
-      <c r="N482" s="1"/>
-      <c r="O482" s="1"/>
-      <c r="P482" s="1"/>
-    </row>
-    <row r="483" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F483" s="1"/>
-      <c r="G483" s="1"/>
-      <c r="H483" s="1"/>
-      <c r="I483" s="1"/>
-      <c r="J483" s="1"/>
-      <c r="K483" s="1"/>
-      <c r="L483" s="1"/>
-      <c r="N483" s="1"/>
-      <c r="O483" s="1"/>
-      <c r="P483" s="1"/>
+    <row r="500" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M500" s="1"/>
     </row>
     <row r="502" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M502" s="1"/>
     </row>
+    <row r="503" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M503" s="1"/>
+    </row>
     <row r="504" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M504" s="1"/>
     </row>
@@ -5229,11 +5228,11 @@
     <row r="508" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M508" s="1"/>
     </row>
-    <row r="509" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M509" s="1"/>
-    </row>
-    <row r="510" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M510" s="1"/>
+    <row r="511" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M511" s="1"/>
+    </row>
+    <row r="512" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M512" s="1"/>
     </row>
     <row r="513" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M513" s="1"/>
@@ -5253,11 +5252,11 @@
     <row r="518" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M518" s="1"/>
     </row>
-    <row r="519" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M519" s="1"/>
-    </row>
-    <row r="520" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M520" s="1"/>
+    <row r="531" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M531" s="1"/>
+    </row>
+    <row r="532" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M532" s="1"/>
     </row>
     <row r="533" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M533" s="1"/>
@@ -5277,11 +5276,11 @@
     <row r="538" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M538" s="1"/>
     </row>
-    <row r="539" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M539" s="1"/>
-    </row>
-    <row r="540" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M540" s="1"/>
+    <row r="541" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M541" s="1"/>
+    </row>
+    <row r="542" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M542" s="1"/>
     </row>
     <row r="543" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M543" s="1"/>
@@ -5301,12 +5300,12 @@
     <row r="548" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M548" s="1"/>
     </row>
-    <row r="549" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M549" s="1"/>
-    </row>
     <row r="550" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M550" s="1"/>
     </row>
+    <row r="551" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M551" s="1"/>
+    </row>
     <row r="552" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M552" s="1"/>
     </row>
@@ -5325,11 +5324,11 @@
     <row r="557" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M557" s="1"/>
     </row>
-    <row r="558" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M558" s="1"/>
-    </row>
-    <row r="559" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M559" s="1"/>
+    <row r="560" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M560" s="1"/>
+    </row>
+    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M561" s="1"/>
     </row>
     <row r="562" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M562" s="1"/>
@@ -5349,11 +5348,11 @@
     <row r="567" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M567" s="1"/>
     </row>
-    <row r="568" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M568" s="1"/>
-    </row>
-    <row r="569" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M569" s="1"/>
+    <row r="570" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M570" s="1"/>
+    </row>
+    <row r="571" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M571" s="1"/>
     </row>
     <row r="572" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M572" s="1"/>
@@ -5373,11 +5372,11 @@
     <row r="577" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M577" s="1"/>
     </row>
-    <row r="578" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M578" s="1"/>
-    </row>
-    <row r="579" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M579" s="1"/>
+    <row r="580" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M580" s="1"/>
+    </row>
+    <row r="581" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M581" s="1"/>
     </row>
     <row r="582" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M582" s="1"/>
@@ -5394,11 +5393,11 @@
     <row r="586" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M586" s="1"/>
     </row>
-    <row r="587" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M587" s="1"/>
-    </row>
-    <row r="588" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M588" s="1"/>
+    <row r="589" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M589" s="1"/>
+    </row>
+    <row r="590" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M590" s="1"/>
     </row>
     <row r="591" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M591" s="1"/>
@@ -5418,11 +5417,11 @@
     <row r="596" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M596" s="1"/>
     </row>
-    <row r="597" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M597" s="1"/>
-    </row>
-    <row r="598" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M598" s="1"/>
+    <row r="599" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M599" s="1"/>
+    </row>
+    <row r="600" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M600" s="1"/>
     </row>
     <row r="601" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M601" s="1"/>
@@ -5442,11 +5441,11 @@
     <row r="606" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M606" s="1"/>
     </row>
-    <row r="607" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M607" s="1"/>
-    </row>
-    <row r="608" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M608" s="1"/>
+    <row r="609" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M609" s="1"/>
+    </row>
+    <row r="610" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M610" s="1"/>
     </row>
     <row r="611" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M611" s="1"/>
@@ -5466,11 +5465,11 @@
     <row r="616" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M616" s="1"/>
     </row>
-    <row r="617" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M617" s="1"/>
-    </row>
-    <row r="618" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M618" s="1"/>
+    <row r="619" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M619" s="1"/>
+    </row>
+    <row r="620" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M620" s="1"/>
     </row>
     <row r="621" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M621" s="1"/>
@@ -5487,11 +5486,11 @@
     <row r="625" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M625" s="1"/>
     </row>
-    <row r="626" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M626" s="1"/>
-    </row>
-    <row r="627" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M627" s="1"/>
+    <row r="628" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M628" s="1"/>
+    </row>
+    <row r="629" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M629" s="1"/>
     </row>
     <row r="630" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M630" s="1"/>
@@ -5511,11 +5510,11 @@
     <row r="635" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M635" s="1"/>
     </row>
-    <row r="636" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M636" s="1"/>
-    </row>
-    <row r="637" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M637" s="1"/>
+    <row r="638" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M638" s="1"/>
+    </row>
+    <row r="639" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M639" s="1"/>
     </row>
     <row r="640" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M640" s="1"/>
@@ -5535,11 +5534,11 @@
     <row r="645" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M645" s="1"/>
     </row>
-    <row r="646" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M646" s="1"/>
-    </row>
-    <row r="647" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M647" s="1"/>
+    <row r="648" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M648" s="1"/>
+    </row>
+    <row r="649" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M649" s="1"/>
     </row>
     <row r="650" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M650" s="1"/>
@@ -5559,11 +5558,11 @@
     <row r="655" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M655" s="1"/>
     </row>
-    <row r="656" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M656" s="1"/>
-    </row>
-    <row r="657" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M657" s="1"/>
+    <row r="658" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M658" s="1"/>
+    </row>
+    <row r="659" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M659" s="1"/>
     </row>
     <row r="660" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M660" s="1"/>
@@ -5580,11 +5579,11 @@
     <row r="664" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M664" s="1"/>
     </row>
-    <row r="665" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M665" s="1"/>
-    </row>
-    <row r="666" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M666" s="1"/>
+    <row r="667" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M667" s="1"/>
+    </row>
+    <row r="668" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M668" s="1"/>
     </row>
     <row r="669" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M669" s="1"/>
@@ -5604,11 +5603,11 @@
     <row r="674" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M674" s="1"/>
     </row>
-    <row r="675" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M675" s="1"/>
-    </row>
-    <row r="676" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M676" s="1"/>
+    <row r="677" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M677" s="1"/>
+    </row>
+    <row r="678" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M678" s="1"/>
     </row>
     <row r="679" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M679" s="1"/>
@@ -5625,18 +5624,18 @@
     <row r="683" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M683" s="1"/>
     </row>
-    <row r="684" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M684" s="1"/>
-    </row>
     <row r="685" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M685" s="1"/>
     </row>
-    <row r="687" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M687" s="1"/>
+    <row r="761" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M761" s="1"/>
     </row>
     <row r="763" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M763" s="1"/>
     </row>
+    <row r="764" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M764" s="1"/>
+    </row>
     <row r="765" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M765" s="1"/>
     </row>
@@ -5652,11 +5651,11 @@
     <row r="769" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M769" s="1"/>
     </row>
-    <row r="770" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M770" s="1"/>
-    </row>
-    <row r="771" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M771" s="1"/>
+    <row r="772" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M772" s="1"/>
+    </row>
+    <row r="773" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M773" s="1"/>
     </row>
     <row r="774" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M774" s="1"/>
@@ -5676,11 +5675,11 @@
     <row r="779" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M779" s="1"/>
     </row>
-    <row r="780" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M780" s="1"/>
-    </row>
-    <row r="781" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M781" s="1"/>
+    <row r="792" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M792" s="1"/>
+    </row>
+    <row r="793" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M793" s="1"/>
     </row>
     <row r="794" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M794" s="1"/>
@@ -5700,11 +5699,11 @@
     <row r="799" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M799" s="1"/>
     </row>
-    <row r="800" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M800" s="1"/>
-    </row>
-    <row r="801" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M801" s="1"/>
+    <row r="802" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M802" s="1"/>
+    </row>
+    <row r="803" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M803" s="1"/>
     </row>
     <row r="804" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M804" s="1"/>
@@ -5724,12 +5723,12 @@
     <row r="809" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M809" s="1"/>
     </row>
-    <row r="810" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M810" s="1"/>
-    </row>
     <row r="811" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M811" s="1"/>
     </row>
+    <row r="812" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M812" s="1"/>
+    </row>
     <row r="813" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M813" s="1"/>
     </row>
@@ -5748,11 +5747,11 @@
     <row r="818" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M818" s="1"/>
     </row>
-    <row r="819" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M819" s="1"/>
-    </row>
-    <row r="820" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M820" s="1"/>
+    <row r="821" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M821" s="1"/>
+    </row>
+    <row r="822" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M822" s="1"/>
     </row>
     <row r="823" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M823" s="1"/>
@@ -5772,11 +5771,11 @@
     <row r="828" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M828" s="1"/>
     </row>
-    <row r="829" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M829" s="1"/>
-    </row>
-    <row r="830" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M830" s="1"/>
+    <row r="831" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M831" s="1"/>
+    </row>
+    <row r="832" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M832" s="1"/>
     </row>
     <row r="833" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M833" s="1"/>
@@ -5796,11 +5795,11 @@
     <row r="838" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M838" s="1"/>
     </row>
-    <row r="839" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M839" s="1"/>
-    </row>
-    <row r="840" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M840" s="1"/>
+    <row r="841" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M841" s="1"/>
+    </row>
+    <row r="842" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M842" s="1"/>
     </row>
     <row r="843" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M843" s="1"/>
@@ -5817,11 +5816,11 @@
     <row r="847" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M847" s="1"/>
     </row>
-    <row r="848" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M848" s="1"/>
-    </row>
-    <row r="849" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M849" s="1"/>
+    <row r="850" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M850" s="1"/>
+    </row>
+    <row r="851" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M851" s="1"/>
     </row>
     <row r="852" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M852" s="1"/>
@@ -5841,11 +5840,11 @@
     <row r="857" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M857" s="1"/>
     </row>
-    <row r="858" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M858" s="1"/>
-    </row>
-    <row r="859" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M859" s="1"/>
+    <row r="860" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M860" s="1"/>
+    </row>
+    <row r="861" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M861" s="1"/>
     </row>
     <row r="862" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M862" s="1"/>
@@ -5865,11 +5864,11 @@
     <row r="867" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M867" s="1"/>
     </row>
-    <row r="868" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M868" s="1"/>
-    </row>
-    <row r="869" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M869" s="1"/>
+    <row r="870" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M870" s="1"/>
+    </row>
+    <row r="871" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M871" s="1"/>
     </row>
     <row r="872" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M872" s="1"/>
@@ -5889,11 +5888,11 @@
     <row r="877" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M877" s="1"/>
     </row>
-    <row r="878" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M878" s="1"/>
-    </row>
-    <row r="879" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M879" s="1"/>
+    <row r="880" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M880" s="1"/>
+    </row>
+    <row r="881" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M881" s="1"/>
     </row>
     <row r="882" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M882" s="1"/>
@@ -5910,11 +5909,11 @@
     <row r="886" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M886" s="1"/>
     </row>
-    <row r="887" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M887" s="1"/>
-    </row>
-    <row r="888" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M888" s="1"/>
+    <row r="889" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M889" s="1"/>
+    </row>
+    <row r="890" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M890" s="1"/>
     </row>
     <row r="891" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M891" s="1"/>
@@ -5934,11 +5933,11 @@
     <row r="896" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M896" s="1"/>
     </row>
-    <row r="897" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M897" s="1"/>
-    </row>
-    <row r="898" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M898" s="1"/>
+    <row r="899" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M899" s="1"/>
+    </row>
+    <row r="900" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M900" s="1"/>
     </row>
     <row r="901" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M901" s="1"/>
@@ -5958,11 +5957,11 @@
     <row r="906" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M906" s="1"/>
     </row>
-    <row r="907" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M907" s="1"/>
-    </row>
-    <row r="908" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M908" s="1"/>
+    <row r="909" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M909" s="1"/>
+    </row>
+    <row r="910" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M910" s="1"/>
     </row>
     <row r="911" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M911" s="1"/>
@@ -5982,11 +5981,11 @@
     <row r="916" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M916" s="1"/>
     </row>
-    <row r="917" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M917" s="1"/>
-    </row>
-    <row r="918" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M918" s="1"/>
+    <row r="919" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M919" s="1"/>
+    </row>
+    <row r="920" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M920" s="1"/>
     </row>
     <row r="921" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M921" s="1"/>
@@ -6003,11 +6002,11 @@
     <row r="925" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M925" s="1"/>
     </row>
-    <row r="926" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M926" s="1"/>
-    </row>
-    <row r="927" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M927" s="1"/>
+    <row r="928" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M928" s="1"/>
+    </row>
+    <row r="929" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M929" s="1"/>
     </row>
     <row r="930" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M930" s="1"/>
@@ -6027,11 +6026,11 @@
     <row r="935" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M935" s="1"/>
     </row>
-    <row r="936" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M936" s="1"/>
-    </row>
-    <row r="937" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M937" s="1"/>
+    <row r="938" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M938" s="1"/>
+    </row>
+    <row r="939" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M939" s="1"/>
     </row>
     <row r="940" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M940" s="1"/>
@@ -6048,23 +6047,23 @@
     <row r="944" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M944" s="1"/>
     </row>
-    <row r="945" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M945" s="1"/>
-    </row>
     <row r="946" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M946" s="1"/>
     </row>
-    <row r="948" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M948" s="1"/>
+    <row r="979" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M979" s="1"/>
+    </row>
+    <row r="980" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M980" s="1"/>
     </row>
     <row r="981" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M981" s="1"/>
     </row>
-    <row r="982" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M982" s="1"/>
-    </row>
-    <row r="983" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M983" s="1"/>
+    <row r="984" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M984" s="1"/>
+    </row>
+    <row r="985" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M985" s="1"/>
     </row>
     <row r="986" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M986" s="1"/>
@@ -6081,18 +6080,18 @@
     <row r="990" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M990" s="1"/>
     </row>
-    <row r="991" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M991" s="1"/>
-    </row>
     <row r="992" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M992" s="1"/>
     </row>
-    <row r="994" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M994" s="1"/>
+    <row r="1079" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1079" s="1"/>
     </row>
     <row r="1081" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1081" s="1"/>
     </row>
+    <row r="1082" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1082" s="1"/>
+    </row>
     <row r="1083" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1083" s="1"/>
     </row>
@@ -6108,11 +6107,11 @@
     <row r="1087" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1087" s="1"/>
     </row>
-    <row r="1088" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1088" s="1"/>
-    </row>
-    <row r="1089" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1089" s="1"/>
+    <row r="1090" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1090" s="1"/>
+    </row>
+    <row r="1091" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1091" s="1"/>
     </row>
     <row r="1092" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1092" s="1"/>
@@ -6132,11 +6131,11 @@
     <row r="1097" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1097" s="1"/>
     </row>
-    <row r="1098" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1098" s="1"/>
-    </row>
-    <row r="1099" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1099" s="1"/>
+    <row r="1109" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1109" s="1"/>
+    </row>
+    <row r="1110" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1110" s="1"/>
     </row>
     <row r="1111" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1111" s="1"/>
@@ -6156,11 +6155,11 @@
     <row r="1116" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1116" s="1"/>
     </row>
-    <row r="1117" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1117" s="1"/>
-    </row>
-    <row r="1118" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1118" s="1"/>
+    <row r="1119" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1119" s="1"/>
+    </row>
+    <row r="1120" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1120" s="1"/>
     </row>
     <row r="1121" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1121" s="1"/>
@@ -6180,12 +6179,12 @@
     <row r="1126" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1126" s="1"/>
     </row>
-    <row r="1127" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1127" s="1"/>
-    </row>
     <row r="1128" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1128" s="1"/>
     </row>
+    <row r="1129" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1129" s="1"/>
+    </row>
     <row r="1130" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1130" s="1"/>
     </row>
@@ -6204,11 +6203,11 @@
     <row r="1135" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1135" s="1"/>
     </row>
-    <row r="1136" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1136" s="1"/>
-    </row>
-    <row r="1137" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1137" s="1"/>
+    <row r="1138" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1138" s="1"/>
+    </row>
+    <row r="1139" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1139" s="1"/>
     </row>
     <row r="1140" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1140" s="1"/>
@@ -6228,11 +6227,11 @@
     <row r="1145" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1145" s="1"/>
     </row>
-    <row r="1146" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1146" s="1"/>
-    </row>
-    <row r="1147" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1147" s="1"/>
+    <row r="1148" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1148" s="1"/>
+    </row>
+    <row r="1149" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1149" s="1"/>
     </row>
     <row r="1150" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1150" s="1"/>
@@ -6252,11 +6251,11 @@
     <row r="1155" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1155" s="1"/>
     </row>
-    <row r="1156" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1156" s="1"/>
-    </row>
-    <row r="1157" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1157" s="1"/>
+    <row r="1158" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1158" s="1"/>
+    </row>
+    <row r="1159" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1159" s="1"/>
     </row>
     <row r="1160" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1160" s="1"/>
@@ -6273,11 +6272,11 @@
     <row r="1164" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1164" s="1"/>
     </row>
-    <row r="1165" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1165" s="1"/>
-    </row>
-    <row r="1166" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1166" s="1"/>
+    <row r="1167" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1167" s="1"/>
+    </row>
+    <row r="1168" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1168" s="1"/>
     </row>
     <row r="1169" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1169" s="1"/>
@@ -6297,11 +6296,11 @@
     <row r="1174" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1174" s="1"/>
     </row>
-    <row r="1175" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1175" s="1"/>
-    </row>
-    <row r="1176" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1176" s="1"/>
+    <row r="1177" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1177" s="1"/>
+    </row>
+    <row r="1178" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1178" s="1"/>
     </row>
     <row r="1179" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1179" s="1"/>
@@ -6321,11 +6320,11 @@
     <row r="1184" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1184" s="1"/>
     </row>
-    <row r="1185" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1185" s="1"/>
-    </row>
-    <row r="1186" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1186" s="1"/>
+    <row r="1187" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1187" s="1"/>
+    </row>
+    <row r="1188" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1188" s="1"/>
     </row>
     <row r="1189" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1189" s="1"/>
@@ -6345,11 +6344,11 @@
     <row r="1194" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1194" s="1"/>
     </row>
-    <row r="1195" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1195" s="1"/>
-    </row>
-    <row r="1196" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1196" s="1"/>
+    <row r="1197" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1197" s="1"/>
+    </row>
+    <row r="1198" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1198" s="1"/>
     </row>
     <row r="1199" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1199" s="1"/>
@@ -6366,11 +6365,11 @@
     <row r="1203" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1203" s="1"/>
     </row>
-    <row r="1204" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1204" s="1"/>
-    </row>
-    <row r="1205" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1205" s="1"/>
+    <row r="1206" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1206" s="1"/>
+    </row>
+    <row r="1207" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1207" s="1"/>
     </row>
     <row r="1208" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1208" s="1"/>
@@ -6390,11 +6389,11 @@
     <row r="1213" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1213" s="1"/>
     </row>
-    <row r="1214" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1214" s="1"/>
-    </row>
-    <row r="1215" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1215" s="1"/>
+    <row r="1216" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1216" s="1"/>
+    </row>
+    <row r="1217" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1217" s="1"/>
     </row>
     <row r="1218" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1218" s="1"/>
@@ -6414,11 +6413,11 @@
     <row r="1223" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1223" s="1"/>
     </row>
-    <row r="1224" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1224" s="1"/>
-    </row>
-    <row r="1225" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1225" s="1"/>
+    <row r="1226" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1226" s="1"/>
+    </row>
+    <row r="1227" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1227" s="1"/>
     </row>
     <row r="1228" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1228" s="1"/>
@@ -6438,11 +6437,11 @@
     <row r="1233" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1233" s="1"/>
     </row>
-    <row r="1234" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1234" s="1"/>
-    </row>
-    <row r="1235" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1235" s="1"/>
+    <row r="1236" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1236" s="1"/>
+    </row>
+    <row r="1237" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1237" s="1"/>
     </row>
     <row r="1238" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1238" s="1"/>
@@ -6459,11 +6458,11 @@
     <row r="1242" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1242" s="1"/>
     </row>
-    <row r="1243" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1243" s="1"/>
-    </row>
-    <row r="1244" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1244" s="1"/>
+    <row r="1245" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1245" s="1"/>
+    </row>
+    <row r="1246" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1246" s="1"/>
     </row>
     <row r="1247" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1247" s="1"/>
@@ -6483,11 +6482,11 @@
     <row r="1252" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1252" s="1"/>
     </row>
-    <row r="1253" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1253" s="1"/>
-    </row>
-    <row r="1254" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1254" s="1"/>
+    <row r="1255" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1255" s="1"/>
+    </row>
+    <row r="1256" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1256" s="1"/>
     </row>
     <row r="1257" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1257" s="1"/>
@@ -6504,29 +6503,23 @@
     <row r="1261" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1261" s="1"/>
     </row>
-    <row r="1262" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1262" s="1"/>
-    </row>
     <row r="1263" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1263" s="1"/>
     </row>
-    <row r="1265" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1265" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L369 I369:J369 N369:P369">
+  <conditionalFormatting sqref="L367 I367:J367 N367:P367">
     <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M337">
+  <conditionalFormatting sqref="M335">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1247">
+  <conditionalFormatting sqref="M1245">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M669">
+  <conditionalFormatting sqref="M667">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M930">
+  <conditionalFormatting sqref="M928">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8003,7 +7996,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -9062,241 +9055,241 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>301</v>
@@ -9308,307 +9301,307 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B191" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="D191" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B192" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>465</v>
-      </c>
       <c r="D192" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C193" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="D193" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B194" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C194" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C194" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="D194" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B195" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="D195" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B196" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C196" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>473</v>
-      </c>
       <c r="D196" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B197" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>475</v>
-      </c>
       <c r="D197" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B198" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>477</v>
-      </c>
       <c r="D198" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B199" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C199" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C199" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="D199" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B200" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="D200" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B201" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>483</v>
-      </c>
       <c r="D201" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B202" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C202" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>485</v>
-      </c>
       <c r="D202" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D204" s="7"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D209" s="7"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -9623,119 +9616,119 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>62</v>
@@ -9749,32 +9742,32 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>232</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D223" s="7"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -9885,7 +9878,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A20" sqref="A1:C1048576"/>
@@ -9929,7 +9922,7 @@
         <v>235</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="b">
         <v>0</v>
@@ -9937,10 +9930,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>308</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>309</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -9948,10 +9941,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -9959,7 +9952,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -9970,7 +9963,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
@@ -9981,7 +9974,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -10003,7 +9996,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>20</v>
@@ -10014,7 +10007,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>8</v>
@@ -10025,7 +10018,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>9</v>
@@ -10036,7 +10029,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>9</v>
@@ -10047,7 +10040,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>9</v>
@@ -10058,7 +10051,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>36</v>
@@ -10069,7 +10062,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>36</v>
@@ -10080,10 +10073,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" s="12" t="b">
         <v>0</v>
@@ -10091,7 +10084,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>36</v>
@@ -10102,10 +10095,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C19" s="12" t="b">
         <v>0</v>
@@ -10113,7 +10106,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>20</v>
@@ -10124,7 +10117,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>8</v>
@@ -10135,7 +10128,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>8</v>
@@ -10146,7 +10139,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>8</v>
@@ -10157,7 +10150,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>20</v>
@@ -10168,7 +10161,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>21</v>
@@ -10179,7 +10172,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>9</v>
@@ -10190,7 +10183,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>20</v>
@@ -10201,7 +10194,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>8</v>
@@ -10212,7 +10205,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>20</v>
@@ -10234,7 +10227,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>9</v>
@@ -10245,7 +10238,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>20</v>
@@ -10256,7 +10249,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>8</v>
@@ -10267,7 +10260,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>8</v>
@@ -10278,7 +10271,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>8</v>
@@ -10289,10 +10282,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C36" s="12" t="b">
         <v>0</v>
@@ -10300,7 +10293,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>21</v>
@@ -10311,7 +10304,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>9</v>
@@ -10333,7 +10326,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>8</v>
@@ -10344,7 +10337,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>21</v>
@@ -10355,7 +10348,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>21</v>
@@ -10366,7 +10359,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>20</v>
@@ -10377,7 +10370,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>9</v>
@@ -10388,7 +10381,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>8</v>
@@ -10399,7 +10392,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>9</v>
@@ -10410,7 +10403,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>8</v>
@@ -10421,7 +10414,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>20</v>
@@ -10432,7 +10425,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>20</v>
@@ -10443,7 +10436,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>20</v>
@@ -10454,10 +10447,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C51" s="12" t="b">
         <v>0</v>
@@ -10465,7 +10458,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>9</v>
@@ -10476,7 +10469,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>21</v>
@@ -10487,7 +10480,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>8</v>
@@ -10498,7 +10491,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>8</v>
@@ -10509,7 +10502,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>21</v>
@@ -10520,7 +10513,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>21</v>
@@ -10531,7 +10524,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>21</v>
@@ -10542,7 +10535,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>21</v>
@@ -10553,7 +10546,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>21</v>
@@ -10564,7 +10557,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>21</v>
@@ -10575,7 +10568,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>21</v>
@@ -10586,7 +10579,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>21</v>
@@ -10597,7 +10590,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>21</v>
@@ -10608,7 +10601,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>21</v>
@@ -10619,7 +10612,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>21</v>
@@ -10630,7 +10623,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>21</v>
@@ -11268,7 +11261,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>9</v>
@@ -11279,7 +11272,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>8</v>
@@ -11290,7 +11283,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>8</v>
@@ -11301,7 +11294,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>8</v>
@@ -11312,7 +11305,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>146</v>
@@ -11323,7 +11316,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>146</v>
@@ -11334,7 +11327,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>146</v>
@@ -11345,7 +11338,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B132" s="23" t="s">
         <v>20</v>
@@ -11356,7 +11349,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>8</v>
@@ -11367,7 +11360,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>8</v>
@@ -11378,7 +11371,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>9</v>
@@ -11389,7 +11382,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B136" s="23" t="s">
         <v>9</v>
@@ -11400,7 +11393,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B137" s="23" t="s">
         <v>9</v>
@@ -11411,7 +11404,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B138" s="24" t="s">
         <v>146</v>
@@ -11421,52 +11414,52 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="B139" s="22" t="s">
+      <c r="A139" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="B141" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="22" t="b">
+      <c r="C141" s="22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="B140" s="22" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B142" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="19" t="b">
+      <c r="C142" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
-        <v>404</v>
+        <v>519</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>8</v>
@@ -11477,7 +11470,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
-        <v>507</v>
+        <v>402</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>8</v>
@@ -11488,10 +11481,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C145" s="19" t="b">
         <v>0</v>
@@ -11499,10 +11492,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
-        <v>435</v>
+        <v>506</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C146" s="19" t="b">
         <v>0</v>
@@ -11510,7 +11503,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B147" s="19" t="s">
         <v>20</v>
@@ -11521,7 +11514,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>20</v>
@@ -11532,10 +11525,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="C149" s="19" t="b">
         <v>0</v>
@@ -11543,7 +11536,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>20</v>
@@ -11554,10 +11547,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="C151" s="19" t="b">
         <v>0</v>
@@ -11565,7 +11558,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>20</v>
@@ -11576,10 +11569,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C153" s="19" t="b">
         <v>0</v>
@@ -11587,10 +11580,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C154" s="19" t="b">
         <v>0</v>
@@ -11598,10 +11591,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C155" s="19" t="b">
         <v>0</v>
@@ -11609,10 +11602,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C156" s="19" t="b">
         <v>0</v>
@@ -11620,40 +11613,40 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C157" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C158" s="10" t="b">
-        <v>1</v>
+      <c r="A158" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C159" s="10" t="b">
-        <v>1</v>
+      <c r="A159" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>508</v>
+        <v>404</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>146</v>
@@ -11664,7 +11657,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>146</v>
@@ -11674,19 +11667,19 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
-        <v>497</v>
+      <c r="A162" s="11" t="s">
+        <v>507</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C162" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
-        <v>452</v>
+      <c r="A163" s="11" t="s">
+        <v>450</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>146</v>
@@ -11696,11 +11689,11 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="11" t="s">
-        <v>453</v>
+      <c r="A164" s="10" t="s">
+        <v>496</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C164" s="10" t="b">
         <v>1</v>
@@ -11708,7 +11701,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>146</v>
@@ -11718,8 +11711,8 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
-        <v>498</v>
+      <c r="A166" s="11" t="s">
+        <v>452</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>146</v>
@@ -11730,7 +11723,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>146</v>
@@ -11741,10 +11734,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C168" s="10" t="b">
         <v>1</v>
@@ -11752,7 +11745,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>510</v>
+        <v>395</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>146</v>
@@ -11763,12 +11756,34 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="B170" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B171" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C170" s="10" t="b">
+      <c r="C171" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C172" s="10" t="b">
         <v>1</v>
       </c>
     </row>
